--- a/application_framework/application_framework/setting_guide/CustomizingConfigurations/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/setting_guide/CustomizingConfigurations/デフォルト設定一覧.xlsx
@@ -11,7 +11,7 @@
     <sheet name="default-configurationプロパティ定義一覧" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$1:$R$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configurationプロパティ定義一覧'!$A$1:$R$336</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configurationプロパティ定義一覧'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1359">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5375,6 +5375,18 @@
   </si>
   <si>
     <t>PUBLIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.mailRequestTable.sendProcessIdColumnName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROCESS_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信要求管理テーブルのメール送信プロセスDカラムの名前</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5814,7 +5826,79 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="345">
+  <dxfs count="351">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -10427,13 +10511,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R335"/>
+  <dimension ref="A1:R336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -17757,7 +17841,7 @@
     </row>
     <row r="138" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="21">
-        <f t="shared" ref="A138:A247" si="2">ROW()-2</f>
+        <f t="shared" ref="A138:A248" si="2">ROW()-2</f>
         <v>136</v>
       </c>
       <c r="B138" s="27"/>
@@ -18436,7 +18520,7 @@
     </row>
     <row r="151" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <f t="shared" ref="A151:A264" si="3">ROW()-2</f>
+        <f t="shared" ref="A151:A265" si="3">ROW()-2</f>
         <v>149</v>
       </c>
       <c r="B151" s="22" t="s">
@@ -22024,7 +22108,7 @@
     </row>
     <row r="219" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="21">
-        <f t="shared" si="2"/>
+        <f>ROW()-2</f>
         <v>217</v>
       </c>
       <c r="B219" s="27"/>
@@ -22079,7 +22163,7 @@
     </row>
     <row r="220" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="21">
-        <f t="shared" si="2"/>
+        <f>ROW()-2</f>
         <v>218</v>
       </c>
       <c r="B220" s="27"/>
@@ -22102,31 +22186,31 @@
         <v>801</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>787</v>
+        <v>79</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L220" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L220" s="38" t="s">
         <v>879</v>
       </c>
       <c r="M220" s="24" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="N220" s="23" t="s">
-        <v>104</v>
+        <v>1358</v>
       </c>
       <c r="O220" s="24" t="s">
-        <v>443</v>
+        <v>1356</v>
       </c>
       <c r="P220" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q220" s="25" t="s">
-        <v>551</v>
+        <v>1357</v>
       </c>
       <c r="R220" s="26" t="s">
         <v>904</v>
@@ -22165,23 +22249,23 @@
       <c r="K221" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L221" s="2" t="s">
+      <c r="L221" s="43" t="s">
         <v>879</v>
       </c>
       <c r="M221" s="24" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="N221" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O221" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P221" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q221" s="25" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="R221" s="26" t="s">
         <v>904</v>
@@ -22224,19 +22308,19 @@
         <v>879</v>
       </c>
       <c r="M222" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N222" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O222" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P222" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q222" s="25" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="R222" s="26" t="s">
         <v>904</v>
@@ -22279,19 +22363,19 @@
         <v>879</v>
       </c>
       <c r="M223" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N223" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O223" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P223" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q223" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R223" s="26" t="s">
         <v>904</v>
@@ -22334,19 +22418,19 @@
         <v>879</v>
       </c>
       <c r="M224" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N224" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O224" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P224" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q224" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R224" s="26" t="s">
         <v>904</v>
@@ -22377,31 +22461,31 @@
         <v>801</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>116</v>
+        <v>787</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>879</v>
       </c>
       <c r="M225" s="24" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="N225" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O225" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P225" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q225" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R225" s="26" t="s">
         <v>904</v>
@@ -22444,19 +22528,19 @@
         <v>879</v>
       </c>
       <c r="M226" s="24" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="N226" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O226" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P226" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q226" s="25" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="R226" s="26" t="s">
         <v>904</v>
@@ -22499,19 +22583,19 @@
         <v>879</v>
       </c>
       <c r="M227" s="24" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="N227" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O227" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P227" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q227" s="25" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="R227" s="26" t="s">
         <v>904</v>
@@ -22554,19 +22638,19 @@
         <v>879</v>
       </c>
       <c r="M228" s="24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N228" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O228" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P228" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q228" s="25" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="R228" s="26" t="s">
         <v>904</v>
@@ -22609,19 +22693,19 @@
         <v>879</v>
       </c>
       <c r="M229" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N229" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O229" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P229" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q229" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R229" s="26" t="s">
         <v>904</v>
@@ -22664,19 +22748,19 @@
         <v>879</v>
       </c>
       <c r="M230" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N230" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O230" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P230" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q230" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R230" s="26" t="s">
         <v>904</v>
@@ -22707,31 +22791,31 @@
         <v>801</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>879</v>
       </c>
       <c r="M231" s="24" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N231" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O231" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P231" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q231" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R231" s="26" t="s">
         <v>904</v>
@@ -22774,19 +22858,19 @@
         <v>879</v>
       </c>
       <c r="M232" s="24" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="N232" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O232" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P232" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q232" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R232" s="26" t="s">
         <v>904</v>
@@ -22829,19 +22913,19 @@
         <v>879</v>
       </c>
       <c r="M233" s="24" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="N233" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O233" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P233" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q233" s="25" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="R233" s="26" t="s">
         <v>904</v>
@@ -22884,19 +22968,19 @@
         <v>879</v>
       </c>
       <c r="M234" s="24" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N234" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O234" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P234" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q234" s="25" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="R234" s="26" t="s">
         <v>904</v>
@@ -22939,19 +23023,19 @@
         <v>879</v>
       </c>
       <c r="M235" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N235" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O235" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P235" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q235" s="25" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="R235" s="26" t="s">
         <v>904</v>
@@ -22994,19 +23078,19 @@
         <v>879</v>
       </c>
       <c r="M236" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N236" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O236" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P236" s="23" t="s">
         <v>561</v>
       </c>
       <c r="Q236" s="25" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="R236" s="26" t="s">
         <v>904</v>
@@ -23028,7 +23112,7 @@
         <v>917</v>
       </c>
       <c r="F237" s="23" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="G237" s="23" t="s">
         <v>904</v>
@@ -23037,31 +23121,31 @@
         <v>801</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>788</v>
+        <v>128</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>906</v>
+        <v>130</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M237" s="24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="N237" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O237" s="24" t="s">
-        <v>1177</v>
+        <v>459</v>
       </c>
       <c r="P237" s="23" t="s">
-        <v>1299</v>
+        <v>561</v>
       </c>
       <c r="Q237" s="25" t="s">
-        <v>691</v>
+        <v>550</v>
       </c>
       <c r="R237" s="26" t="s">
         <v>904</v>
@@ -23104,19 +23188,19 @@
         <v>880</v>
       </c>
       <c r="M238" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N238" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O238" s="24" t="s">
-        <v>359</v>
+        <v>1177</v>
       </c>
       <c r="P238" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="Q238" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="R238" s="26" t="s">
         <v>904</v>
@@ -23159,19 +23243,19 @@
         <v>880</v>
       </c>
       <c r="M239" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N239" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O239" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P239" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="Q239" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R239" s="26" t="s">
         <v>904</v>
@@ -23214,19 +23298,19 @@
         <v>880</v>
       </c>
       <c r="M240" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N240" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O240" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P240" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="Q240" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R240" s="26" t="s">
         <v>904</v>
@@ -23237,7 +23321,7 @@
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="B241" s="30"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="23" t="s">
         <v>904</v>
       </c>
@@ -23269,19 +23353,19 @@
         <v>880</v>
       </c>
       <c r="M241" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N241" s="23" t="s">
-        <v>597</v>
+        <v>145</v>
       </c>
       <c r="O241" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P241" s="23" t="s">
         <v>1299</v>
       </c>
       <c r="Q241" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R241" s="26" t="s">
         <v>904</v>
@@ -23292,9 +23376,7 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="B242" s="32" t="s">
-        <v>1247</v>
-      </c>
+      <c r="B242" s="30"/>
       <c r="C242" s="23" t="s">
         <v>904</v>
       </c>
@@ -23305,40 +23387,40 @@
         <v>917</v>
       </c>
       <c r="F242" s="23" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="G242" s="23" t="s">
         <v>904</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>163</v>
+        <v>788</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>165</v>
+        <v>906</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="M242" s="24" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N242" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O242" s="24" t="s">
-        <v>1178</v>
+        <v>362</v>
       </c>
       <c r="P242" s="23" t="s">
-        <v>1228</v>
+        <v>1299</v>
       </c>
       <c r="Q242" s="25" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="R242" s="26" t="s">
         <v>904</v>
@@ -23349,7 +23431,7 @@
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="B243" s="22" t="s">
+      <c r="B243" s="32" t="s">
         <v>1247</v>
       </c>
       <c r="C243" s="23" t="s">
@@ -23368,34 +23450,34 @@
         <v>904</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L243" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M243" s="24" t="s">
-        <v>665</v>
+        <v>162</v>
       </c>
       <c r="N243" s="23" t="s">
-        <v>755</v>
+        <v>599</v>
       </c>
       <c r="O243" s="24" t="s">
-        <v>751</v>
+        <v>1178</v>
       </c>
       <c r="P243" s="23" t="s">
-        <v>514</v>
+        <v>1228</v>
       </c>
       <c r="Q243" s="25" t="s">
-        <v>519</v>
+        <v>710</v>
       </c>
       <c r="R243" s="26" t="s">
         <v>904</v>
@@ -23406,7 +23488,9 @@
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="B244" s="27"/>
+      <c r="B244" s="22" t="s">
+        <v>1247</v>
+      </c>
       <c r="C244" s="23" t="s">
         <v>904</v>
       </c>
@@ -23438,19 +23522,19 @@
         <v>885</v>
       </c>
       <c r="M244" s="24" t="s">
-        <v>752</v>
+        <v>665</v>
       </c>
       <c r="N244" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O244" s="24" t="s">
-        <v>416</v>
+        <v>751</v>
       </c>
       <c r="P244" s="23" t="s">
         <v>514</v>
       </c>
       <c r="Q244" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R244" s="26" t="s">
         <v>904</v>
@@ -23493,19 +23577,19 @@
         <v>885</v>
       </c>
       <c r="M245" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N245" s="23" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="O245" s="24" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="P245" s="23" t="s">
         <v>514</v>
       </c>
       <c r="Q245" s="25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="R245" s="26" t="s">
         <v>904</v>
@@ -23516,7 +23600,7 @@
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="B246" s="30"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="23" t="s">
         <v>904</v>
       </c>
@@ -23548,20 +23632,22 @@
         <v>885</v>
       </c>
       <c r="M246" s="24" t="s">
-        <v>41</v>
+        <v>753</v>
       </c>
       <c r="N246" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="O246" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P246" s="28"/>
-      <c r="Q246" s="29" t="s">
-        <v>409</v>
+        <v>754</v>
+      </c>
+      <c r="O246" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="P246" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q246" s="25" t="s">
+        <v>522</v>
       </c>
       <c r="R246" s="26" t="s">
-        <v>844</v>
+        <v>904</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23569,9 +23655,7 @@
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="B247" s="32" t="s">
-        <v>1248</v>
-      </c>
+      <c r="B247" s="30"/>
       <c r="C247" s="23" t="s">
         <v>904</v>
       </c>
@@ -23588,85 +23672,83 @@
         <v>904</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M247" s="24" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="N247" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="O247" s="24" t="s">
-        <v>1278</v>
-      </c>
-      <c r="P247" s="23" t="s">
-        <v>1228</v>
-      </c>
-      <c r="Q247" s="25" t="s">
-        <v>708</v>
+        <v>733</v>
+      </c>
+      <c r="O247" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P247" s="28"/>
+      <c r="Q247" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="R247" s="26" t="s">
-        <v>904</v>
+        <v>844</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="B248" s="32" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C248" s="23" t="s">
         <v>904</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="E248" s="23" t="s">
         <v>917</v>
       </c>
       <c r="F248" s="23" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="G248" s="23" t="s">
         <v>904</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>907</v>
+        <v>172</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M248" s="24" t="s">
-        <v>851</v>
+        <v>169</v>
       </c>
       <c r="N248" s="23" t="s">
-        <v>1279</v>
+        <v>600</v>
       </c>
       <c r="O248" s="24" t="s">
-        <v>1179</v>
+        <v>1278</v>
       </c>
       <c r="P248" s="23" t="s">
         <v>1228</v>
@@ -23683,53 +23765,53 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B249" s="22" t="s">
+      <c r="B249" s="32" t="s">
         <v>1247</v>
       </c>
       <c r="C249" s="23" t="s">
         <v>904</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="E249" s="23" t="s">
         <v>917</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="G249" s="23" t="s">
         <v>904</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M249" s="24" t="s">
-        <v>179</v>
+        <v>851</v>
       </c>
       <c r="N249" s="23" t="s">
-        <v>601</v>
+        <v>1279</v>
       </c>
       <c r="O249" s="24" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P249" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="Q249" s="25" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="R249" s="26" t="s">
         <v>904</v>
@@ -23740,7 +23822,9 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B250" s="27"/>
+      <c r="B250" s="22" t="s">
+        <v>1247</v>
+      </c>
       <c r="C250" s="23" t="s">
         <v>904</v>
       </c>
@@ -23772,20 +23856,22 @@
         <v>889</v>
       </c>
       <c r="M250" s="24" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="N250" s="23" t="s">
-        <v>733</v>
-      </c>
-      <c r="O250" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P250" s="28"/>
-      <c r="Q250" s="29" t="s">
-        <v>180</v>
+        <v>601</v>
+      </c>
+      <c r="O250" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P250" s="23" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q250" s="25" t="s">
+        <v>694</v>
       </c>
       <c r="R250" s="26" t="s">
-        <v>935</v>
+        <v>904</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23825,22 +23911,20 @@
         <v>889</v>
       </c>
       <c r="M251" s="24" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N251" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="O251" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="P251" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q251" s="25" t="s">
-        <v>519</v>
+        <v>733</v>
+      </c>
+      <c r="O251" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P251" s="28"/>
+      <c r="Q251" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="R251" s="26" t="s">
-        <v>904</v>
+        <v>935</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -23880,19 +23964,19 @@
         <v>889</v>
       </c>
       <c r="M252" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N252" s="23" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O252" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P252" s="23" t="s">
         <v>514</v>
       </c>
       <c r="Q252" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R252" s="26" t="s">
         <v>904</v>
@@ -23935,19 +24019,19 @@
         <v>889</v>
       </c>
       <c r="M253" s="24" t="s">
-        <v>757</v>
+        <v>15</v>
       </c>
       <c r="N253" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O253" s="24" t="s">
-        <v>484</v>
+        <v>416</v>
       </c>
       <c r="P253" s="23" t="s">
         <v>514</v>
       </c>
       <c r="Q253" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="R253" s="26" t="s">
         <v>904</v>
@@ -23958,7 +24042,7 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B254" s="30"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="23" t="s">
         <v>904</v>
       </c>
@@ -23990,17 +24074,19 @@
         <v>889</v>
       </c>
       <c r="M254" s="24" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="N254" s="23" t="s">
-        <v>762</v>
-      </c>
-      <c r="O254" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P254" s="28"/>
-      <c r="Q254" s="29">
-        <v>50</v>
+        <v>759</v>
+      </c>
+      <c r="O254" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="P254" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q254" s="25" t="s">
+        <v>523</v>
       </c>
       <c r="R254" s="26" t="s">
         <v>904</v>
@@ -24011,14 +24097,12 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="B255" s="22" t="s">
-        <v>1247</v>
-      </c>
+      <c r="B255" s="30"/>
       <c r="C255" s="23" t="s">
         <v>904</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="E255" s="23" t="s">
         <v>917</v>
@@ -24030,37 +24114,35 @@
         <v>904</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>185</v>
+        <v>908</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M255" s="24" t="s">
-        <v>182</v>
+        <v>761</v>
       </c>
       <c r="N255" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="O255" s="24" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P255" s="23" t="s">
-        <v>1228</v>
-      </c>
-      <c r="Q255" s="25" t="s">
-        <v>711</v>
+        <v>762</v>
+      </c>
+      <c r="O255" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P255" s="28"/>
+      <c r="Q255" s="29">
+        <v>50</v>
       </c>
       <c r="R255" s="26" t="s">
-        <v>845</v>
+        <v>904</v>
       </c>
     </row>
     <row r="256" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24068,7 +24150,9 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B256" s="27"/>
+      <c r="B256" s="22" t="s">
+        <v>1247</v>
+      </c>
       <c r="C256" s="23" t="s">
         <v>904</v>
       </c>
@@ -24100,22 +24184,22 @@
         <v>890</v>
       </c>
       <c r="M256" s="24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N256" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O256" s="24" t="s">
-        <v>397</v>
+        <v>1280</v>
       </c>
       <c r="P256" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="Q256" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R256" s="26" t="s">
-        <v>936</v>
+        <v>845</v>
       </c>
     </row>
     <row r="257" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24155,19 +24239,19 @@
         <v>890</v>
       </c>
       <c r="M257" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N257" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O257" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P257" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="Q257" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R257" s="26" t="s">
         <v>936</v>
@@ -24178,7 +24262,7 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B258" s="30"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="23" t="s">
         <v>904</v>
       </c>
@@ -24210,22 +24294,22 @@
         <v>890</v>
       </c>
       <c r="M258" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N258" s="23" t="s">
-        <v>658</v>
+        <v>368</v>
       </c>
       <c r="O258" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P258" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="Q258" s="25" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="R258" s="26" t="s">
-        <v>904</v>
+        <v>936</v>
       </c>
     </row>
     <row r="259" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24233,9 +24317,7 @@
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="B259" s="22" t="s">
-        <v>915</v>
-      </c>
+      <c r="B259" s="30"/>
       <c r="C259" s="23" t="s">
         <v>904</v>
       </c>
@@ -24243,7 +24325,7 @@
         <v>904</v>
       </c>
       <c r="E259" s="23" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="F259" s="23" t="s">
         <v>917</v>
@@ -24252,34 +24334,34 @@
         <v>904</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="M259" s="24" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="N259" s="23" t="s">
-        <v>1281</v>
+        <v>658</v>
       </c>
       <c r="O259" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P259" s="23" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Q259" s="25" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="R259" s="26" t="s">
         <v>904</v>
@@ -24290,7 +24372,9 @@
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="B260" s="27"/>
+      <c r="B260" s="22" t="s">
+        <v>915</v>
+      </c>
       <c r="C260" s="23" t="s">
         <v>904</v>
       </c>
@@ -24322,13 +24406,13 @@
         <v>872</v>
       </c>
       <c r="M260" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N260" s="23" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="O260" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P260" s="23" t="s">
         <v>1227</v>
@@ -24377,19 +24461,19 @@
         <v>872</v>
       </c>
       <c r="M261" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N261" s="23" t="s">
-        <v>589</v>
+        <v>1282</v>
       </c>
       <c r="O261" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P261" s="23" t="s">
         <v>1227</v>
       </c>
       <c r="Q261" s="25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R261" s="26" t="s">
         <v>904</v>
@@ -24432,19 +24516,19 @@
         <v>872</v>
       </c>
       <c r="M262" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N262" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O262" s="24" t="s">
-        <v>1181</v>
+        <v>402</v>
       </c>
       <c r="P262" s="23" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Q262" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R262" s="26" t="s">
         <v>904</v>
@@ -24455,7 +24539,7 @@
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="B263" s="30"/>
+      <c r="B263" s="27"/>
       <c r="C263" s="23" t="s">
         <v>904</v>
       </c>
@@ -24487,13 +24571,13 @@
         <v>872</v>
       </c>
       <c r="M263" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N263" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O263" s="24" t="s">
-        <v>404</v>
+        <v>1181</v>
       </c>
       <c r="P263" s="23" t="s">
         <v>1228</v>
@@ -24510,9 +24594,7 @@
         <f t="shared" si="3"/>
         <v>262</v>
       </c>
-      <c r="B264" s="32" t="s">
-        <v>915</v>
-      </c>
+      <c r="B264" s="30"/>
       <c r="C264" s="23" t="s">
         <v>904</v>
       </c>
@@ -24529,34 +24611,34 @@
         <v>904</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="M264" s="24" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="N264" s="23" t="s">
-        <v>1284</v>
+        <v>591</v>
       </c>
       <c r="O264" s="24" t="s">
-        <v>1283</v>
+        <v>404</v>
       </c>
       <c r="P264" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="Q264" s="25" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="R264" s="26" t="s">
         <v>904</v>
@@ -24564,63 +24646,67 @@
     </row>
     <row r="265" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="21">
-        <f t="shared" ref="A265:A307" si="4">ROW()-2</f>
+        <f t="shared" si="3"/>
         <v>263</v>
       </c>
-      <c r="B265" s="52" t="s">
-        <v>942</v>
-      </c>
-      <c r="C265" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="D265" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="E265" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="F265" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="G265" s="37" t="s">
+      <c r="B265" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="E265" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="F265" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="G265" s="23" t="s">
         <v>904</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>943</v>
+        <v>808</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>944</v>
+        <v>176</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L265" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="M265" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N265" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="O265" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P265" s="14"/>
-      <c r="Q265" s="53" t="s">
-        <v>946</v>
-      </c>
-      <c r="R265" s="34"/>
+        <v>887</v>
+      </c>
+      <c r="M265" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N265" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="O265" s="24" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P265" s="23" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q265" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="R265" s="26" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="266" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A266:A308" si="4">ROW()-2</f>
         <v>264</v>
       </c>
-      <c r="B266" s="22" t="s">
+      <c r="B266" s="52" t="s">
         <v>942</v>
       </c>
       <c r="C266" s="37" t="s">
@@ -24639,41 +24725,43 @@
         <v>904</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>949</v>
+        <v>14</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M266" s="37" t="s">
-        <v>951</v>
+        <v>17</v>
       </c>
       <c r="N266" s="37" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O266" s="37" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P266" s="35"/>
-      <c r="Q266" s="64"/>
-      <c r="R266" s="34" t="s">
-        <v>968</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="O266" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="R266" s="34"/>
     </row>
     <row r="267" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="21">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B267" s="27"/>
+      <c r="B267" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C267" s="37" t="s">
         <v>904</v>
       </c>
@@ -24690,36 +24778,34 @@
         <v>904</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>955</v>
+        <v>57</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="L267" s="2" t="s">
-        <v>1003</v>
+        <v>948</v>
       </c>
       <c r="M267" s="37" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="N267" s="37" t="s">
-        <v>1051</v>
+        <v>1086</v>
       </c>
       <c r="O267" s="37" t="s">
-        <v>958</v>
-      </c>
-      <c r="P267" s="37" t="s">
-        <v>1214</v>
-      </c>
-      <c r="Q267" s="54" t="s">
-        <v>1209</v>
-      </c>
-      <c r="R267" s="34"/>
+        <v>1297</v>
+      </c>
+      <c r="P267" s="35"/>
+      <c r="Q267" s="64"/>
+      <c r="R267" s="34" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="268" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="21">
@@ -24746,13 +24832,13 @@
         <v>953</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>224</v>
+        <v>955</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>1003</v>
@@ -24761,27 +24847,25 @@
         <v>957</v>
       </c>
       <c r="N268" s="37" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O268" s="37" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="P268" s="37" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="Q268" s="54" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R268" s="34" t="s">
-        <v>969</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="R268" s="34"/>
     </row>
     <row r="269" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="21">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="B269" s="30"/>
+      <c r="B269" s="27"/>
       <c r="C269" s="37" t="s">
         <v>904</v>
       </c>
@@ -24813,30 +24897,30 @@
         <v>1003</v>
       </c>
       <c r="M269" s="37" t="s">
-        <v>227</v>
+        <v>957</v>
       </c>
       <c r="N269" s="37" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="O269" s="37" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P269" s="37" t="s">
         <v>1213</v>
       </c>
       <c r="Q269" s="54" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R269" s="34"/>
+        <v>1211</v>
+      </c>
+      <c r="R269" s="34" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="270" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="21">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="B270" s="22" t="s">
-        <v>942</v>
-      </c>
+      <c r="B270" s="30"/>
       <c r="C270" s="37" t="s">
         <v>904</v>
       </c>
@@ -24853,32 +24937,34 @@
         <v>904</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>965</v>
+        <v>224</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>1017</v>
+        <v>959</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>964</v>
+        <v>1003</v>
       </c>
       <c r="M270" s="37" t="s">
-        <v>967</v>
+        <v>227</v>
       </c>
       <c r="N270" s="37" t="s">
-        <v>986</v>
-      </c>
-      <c r="O270" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P270" s="14"/>
-      <c r="Q270" s="14" t="s">
-        <v>970</v>
+        <v>1050</v>
+      </c>
+      <c r="O270" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="P270" s="37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q270" s="54" t="s">
+        <v>1210</v>
       </c>
       <c r="R270" s="34"/>
     </row>
@@ -24887,7 +24973,9 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B271" s="27"/>
+      <c r="B271" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C271" s="37" t="s">
         <v>904</v>
       </c>
@@ -24922,14 +25010,14 @@
         <v>967</v>
       </c>
       <c r="N271" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O271" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P271" s="14"/>
       <c r="Q271" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R271" s="34"/>
     </row>
@@ -24973,14 +25061,14 @@
         <v>967</v>
       </c>
       <c r="N272" s="37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O272" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P272" s="14"/>
       <c r="Q272" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="R272" s="34"/>
     </row>
@@ -25024,14 +25112,14 @@
         <v>967</v>
       </c>
       <c r="N273" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="O273" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P273" s="14"/>
       <c r="Q273" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R273" s="34"/>
     </row>
@@ -25075,14 +25163,14 @@
         <v>967</v>
       </c>
       <c r="N274" s="37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O274" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P274" s="14"/>
       <c r="Q274" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R274" s="34"/>
     </row>
@@ -25126,14 +25214,14 @@
         <v>967</v>
       </c>
       <c r="N275" s="37" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O275" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P275" s="14"/>
       <c r="Q275" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R275" s="34"/>
     </row>
@@ -25177,14 +25265,14 @@
         <v>967</v>
       </c>
       <c r="N276" s="37" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O276" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P276" s="14"/>
       <c r="Q276" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="R276" s="34"/>
     </row>
@@ -25228,14 +25316,14 @@
         <v>967</v>
       </c>
       <c r="N277" s="37" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O277" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P277" s="14"/>
       <c r="Q277" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R277" s="34"/>
     </row>
@@ -25279,14 +25367,14 @@
         <v>967</v>
       </c>
       <c r="N278" s="37" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O278" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P278" s="14"/>
       <c r="Q278" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R278" s="34"/>
     </row>
@@ -25330,14 +25418,14 @@
         <v>967</v>
       </c>
       <c r="N279" s="37" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O279" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P279" s="14"/>
       <c r="Q279" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R279" s="34"/>
     </row>
@@ -25381,14 +25469,14 @@
         <v>967</v>
       </c>
       <c r="N280" s="37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O280" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P280" s="14"/>
       <c r="Q280" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R280" s="34"/>
     </row>
@@ -25432,14 +25520,14 @@
         <v>967</v>
       </c>
       <c r="N281" s="37" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O281" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P281" s="14"/>
       <c r="Q281" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R281" s="34"/>
     </row>
@@ -25483,14 +25571,14 @@
         <v>967</v>
       </c>
       <c r="N282" s="37" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O282" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P282" s="14"/>
       <c r="Q282" s="14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R282" s="34"/>
     </row>
@@ -25534,14 +25622,14 @@
         <v>967</v>
       </c>
       <c r="N283" s="37" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O283" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P283" s="14"/>
       <c r="Q283" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R283" s="34"/>
     </row>
@@ -25585,14 +25673,14 @@
         <v>967</v>
       </c>
       <c r="N284" s="37" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O284" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P284" s="14"/>
       <c r="Q284" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R284" s="34"/>
     </row>
@@ -25636,14 +25724,14 @@
         <v>967</v>
       </c>
       <c r="N285" s="37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O285" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="P285" s="14"/>
       <c r="Q285" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R285" s="34"/>
     </row>
@@ -25652,7 +25740,7 @@
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B286" s="30"/>
+      <c r="B286" s="27"/>
       <c r="C286" s="37" t="s">
         <v>904</v>
       </c>
@@ -25687,7 +25775,7 @@
         <v>967</v>
       </c>
       <c r="N286" s="37" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="O286" s="14" t="s">
         <v>1182</v>
@@ -25703,9 +25791,7 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B287" s="22" t="s">
-        <v>942</v>
-      </c>
+      <c r="B287" s="30"/>
       <c r="C287" s="37" t="s">
         <v>904</v>
       </c>
@@ -25722,31 +25808,33 @@
         <v>904</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>1007</v>
+        <v>963</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>1005</v>
+        <v>965</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="L287" s="2" t="s">
-        <v>1306</v>
+        <v>964</v>
       </c>
       <c r="M287" s="37" t="s">
-        <v>200</v>
+        <v>967</v>
       </c>
       <c r="N287" s="37" t="s">
-        <v>1010</v>
-      </c>
-      <c r="O287" s="37" t="s">
-        <v>1305</v>
-      </c>
-      <c r="P287" s="35"/>
-      <c r="Q287" s="64"/>
+        <v>1000</v>
+      </c>
+      <c r="O287" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P287" s="14"/>
+      <c r="Q287" s="14" t="s">
+        <v>985</v>
+      </c>
       <c r="R287" s="34"/>
     </row>
     <row r="288" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25754,7 +25842,9 @@
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B288" s="27"/>
+      <c r="B288" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C288" s="37" t="s">
         <v>904</v>
       </c>
@@ -25783,16 +25873,16 @@
         <v>1006</v>
       </c>
       <c r="L288" s="2" t="s">
-        <v>1004</v>
+        <v>1306</v>
       </c>
       <c r="M288" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N288" s="37" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O288" s="37" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="P288" s="35"/>
       <c r="Q288" s="64"/>
@@ -25835,13 +25925,13 @@
         <v>1004</v>
       </c>
       <c r="M289" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N289" s="37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O289" s="37" t="s">
-        <v>356</v>
+        <v>1304</v>
       </c>
       <c r="P289" s="35"/>
       <c r="Q289" s="64"/>
@@ -25884,13 +25974,13 @@
         <v>1004</v>
       </c>
       <c r="M290" s="37" t="s">
-        <v>1008</v>
+        <v>207</v>
       </c>
       <c r="N290" s="37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O290" s="37" t="s">
-        <v>1304</v>
+        <v>356</v>
       </c>
       <c r="P290" s="35"/>
       <c r="Q290" s="64"/>
@@ -25901,7 +25991,7 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="B291" s="30"/>
+      <c r="B291" s="27"/>
       <c r="C291" s="37" t="s">
         <v>904</v>
       </c>
@@ -25933,13 +26023,13 @@
         <v>1004</v>
       </c>
       <c r="M291" s="37" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N291" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O291" s="37" t="s">
-        <v>351</v>
+        <v>1304</v>
       </c>
       <c r="P291" s="35"/>
       <c r="Q291" s="64"/>
@@ -25950,9 +26040,7 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="B292" s="22" t="s">
-        <v>942</v>
-      </c>
+      <c r="B292" s="30"/>
       <c r="C292" s="37" t="s">
         <v>904</v>
       </c>
@@ -25969,35 +26057,31 @@
         <v>904</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="M292" s="37" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="N292" s="37" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="O292" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="P292" s="37" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q292" s="54" t="s">
-        <v>1212</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="P292" s="35"/>
+      <c r="Q292" s="64"/>
       <c r="R292" s="34"/>
     </row>
     <row r="293" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -26005,7 +26089,9 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="B293" s="27"/>
+      <c r="B293" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C293" s="37" t="s">
         <v>904</v>
       </c>
@@ -26037,19 +26123,19 @@
         <v>1054</v>
       </c>
       <c r="M293" s="37" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="N293" s="37" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O293" s="37" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="P293" s="37" t="s">
         <v>1215</v>
       </c>
       <c r="Q293" s="54" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="R293" s="34"/>
     </row>
@@ -26090,19 +26176,19 @@
         <v>1054</v>
       </c>
       <c r="M294" s="37" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="N294" s="37" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="O294" s="37" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="P294" s="37" t="s">
         <v>1215</v>
       </c>
       <c r="Q294" s="54" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="R294" s="34"/>
     </row>
@@ -26149,13 +26235,13 @@
         <v>1027</v>
       </c>
       <c r="O295" s="37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="P295" s="37" t="s">
         <v>1215</v>
       </c>
       <c r="Q295" s="54" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="R295" s="34"/>
     </row>
@@ -26196,19 +26282,19 @@
         <v>1054</v>
       </c>
       <c r="M296" s="37" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="N296" s="37" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="O296" s="37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="P296" s="37" t="s">
         <v>1215</v>
       </c>
       <c r="Q296" s="54" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="R296" s="34"/>
     </row>
@@ -26249,17 +26335,19 @@
         <v>1054</v>
       </c>
       <c r="M297" s="37" t="s">
-        <v>1090</v>
+        <v>1030</v>
       </c>
       <c r="N297" s="37" t="s">
-        <v>1101</v>
-      </c>
-      <c r="O297" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P297" s="14"/>
-      <c r="Q297" s="14" t="s">
-        <v>1091</v>
+        <v>1032</v>
+      </c>
+      <c r="O297" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P297" s="37" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Q297" s="54" t="s">
+        <v>1219</v>
       </c>
       <c r="R297" s="34"/>
     </row>
@@ -26310,7 +26398,7 @@
       </c>
       <c r="P298" s="14"/>
       <c r="Q298" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R298" s="34"/>
     </row>
@@ -26361,7 +26449,7 @@
       </c>
       <c r="P299" s="14"/>
       <c r="Q299" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R299" s="34"/>
     </row>
@@ -26412,7 +26500,7 @@
       </c>
       <c r="P300" s="14"/>
       <c r="Q300" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R300" s="34"/>
     </row>
@@ -26463,7 +26551,7 @@
       </c>
       <c r="P301" s="14"/>
       <c r="Q301" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R301" s="34"/>
     </row>
@@ -26514,7 +26602,7 @@
       </c>
       <c r="P302" s="14"/>
       <c r="Q302" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R302" s="34"/>
     </row>
@@ -26565,7 +26653,7 @@
       </c>
       <c r="P303" s="14"/>
       <c r="Q303" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R303" s="34"/>
     </row>
@@ -26616,7 +26704,7 @@
       </c>
       <c r="P304" s="14"/>
       <c r="Q304" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R304" s="34"/>
     </row>
@@ -26667,7 +26755,7 @@
       </c>
       <c r="P305" s="14"/>
       <c r="Q305" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R305" s="34"/>
     </row>
@@ -26718,7 +26806,7 @@
       </c>
       <c r="P306" s="14"/>
       <c r="Q306" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R306" s="34"/>
     </row>
@@ -26759,25 +26847,23 @@
         <v>1054</v>
       </c>
       <c r="M307" s="37" t="s">
-        <v>1034</v>
+        <v>1090</v>
       </c>
       <c r="N307" s="37" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O307" s="37" t="s">
-        <v>1035</v>
-      </c>
-      <c r="P307" s="37" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q307" s="55" t="s">
-        <v>683</v>
+        <v>1101</v>
+      </c>
+      <c r="O307" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P307" s="14"/>
+      <c r="Q307" s="14" t="s">
+        <v>1100</v>
       </c>
       <c r="R307" s="34"/>
     </row>
     <row r="308" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="21">
-        <f t="shared" ref="A308:A335" si="5">ROW()-2</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B308" s="27"/>
@@ -26812,25 +26898,25 @@
         <v>1054</v>
       </c>
       <c r="M308" s="37" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N308" s="56" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="N308" s="37" t="s">
+        <v>1033</v>
       </c>
       <c r="O308" s="37" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="P308" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="Q308" s="54" t="s">
-        <v>1220</v>
+      <c r="Q308" s="55" t="s">
+        <v>683</v>
       </c>
       <c r="R308" s="34"/>
     </row>
     <row r="309" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A309:A336" si="5">ROW()-2</f>
         <v>307</v>
       </c>
       <c r="B309" s="27"/>
@@ -26865,19 +26951,19 @@
         <v>1054</v>
       </c>
       <c r="M309" s="37" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="N309" s="56" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="O309" s="37" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="P309" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="Q309" s="55" t="s">
-        <v>683</v>
+      <c r="Q309" s="54" t="s">
+        <v>1220</v>
       </c>
       <c r="R309" s="34"/>
     </row>
@@ -26918,19 +27004,19 @@
         <v>1054</v>
       </c>
       <c r="M310" s="37" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="N310" s="56" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="O310" s="37" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="P310" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="Q310" s="54" t="s">
-        <v>1221</v>
+      <c r="Q310" s="55" t="s">
+        <v>683</v>
       </c>
       <c r="R310" s="34"/>
     </row>
@@ -26971,19 +27057,19 @@
         <v>1054</v>
       </c>
       <c r="M311" s="37" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="N311" s="56" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O311" s="37" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="P311" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="Q311" s="55" t="s">
-        <v>681</v>
+      <c r="Q311" s="54" t="s">
+        <v>1221</v>
       </c>
       <c r="R311" s="34"/>
     </row>
@@ -26992,7 +27078,7 @@
         <f t="shared" si="5"/>
         <v>310</v>
       </c>
-      <c r="B312" s="30"/>
+      <c r="B312" s="27"/>
       <c r="C312" s="37" t="s">
         <v>904</v>
       </c>
@@ -27024,19 +27110,19 @@
         <v>1054</v>
       </c>
       <c r="M312" s="37" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="N312" s="56" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="O312" s="37" t="s">
-        <v>1117</v>
+        <v>1046</v>
       </c>
       <c r="P312" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="Q312" s="54" t="s">
-        <v>1222</v>
+      <c r="Q312" s="55" t="s">
+        <v>681</v>
       </c>
       <c r="R312" s="34"/>
     </row>
@@ -27045,9 +27131,7 @@
         <f t="shared" si="5"/>
         <v>311</v>
       </c>
-      <c r="B313" s="22" t="s">
-        <v>942</v>
-      </c>
+      <c r="B313" s="30"/>
       <c r="C313" s="37" t="s">
         <v>904</v>
       </c>
@@ -27064,34 +27148,34 @@
         <v>904</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1055</v>
+        <v>1018</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>1058</v>
+        <v>1019</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M313" s="37" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="N313" s="56" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="O313" s="37" t="s">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="P313" s="37" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="Q313" s="54" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="R313" s="34"/>
     </row>
@@ -27100,7 +27184,9 @@
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="B314" s="27"/>
+      <c r="B314" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C314" s="37" t="s">
         <v>904</v>
       </c>
@@ -27132,17 +27218,19 @@
         <v>1053</v>
       </c>
       <c r="M314" s="37" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="N314" s="56" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O314" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P314" s="14"/>
-      <c r="Q314" s="57" t="s">
-        <v>567</v>
+        <v>1061</v>
+      </c>
+      <c r="O314" s="37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P314" s="37" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q314" s="54" t="s">
+        <v>1224</v>
       </c>
       <c r="R314" s="34"/>
     </row>
@@ -27193,7 +27281,7 @@
       </c>
       <c r="P315" s="14"/>
       <c r="Q315" s="57" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="R315" s="34"/>
     </row>
@@ -27244,7 +27332,7 @@
       </c>
       <c r="P316" s="14"/>
       <c r="Q316" s="57" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="R316" s="34"/>
     </row>
@@ -27295,7 +27383,7 @@
       </c>
       <c r="P317" s="14"/>
       <c r="Q317" s="57" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="R317" s="34"/>
     </row>
@@ -27346,7 +27434,7 @@
       </c>
       <c r="P318" s="14"/>
       <c r="Q318" s="57" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="R318" s="34"/>
     </row>
@@ -27397,7 +27485,7 @@
       </c>
       <c r="P319" s="14"/>
       <c r="Q319" s="57" t="s">
-        <v>1088</v>
+        <v>572</v>
       </c>
       <c r="R319" s="34"/>
     </row>
@@ -27448,7 +27536,7 @@
       </c>
       <c r="P320" s="14"/>
       <c r="Q320" s="57" t="s">
-        <v>562</v>
+        <v>1088</v>
       </c>
       <c r="R320" s="34"/>
     </row>
@@ -27499,7 +27587,7 @@
       </c>
       <c r="P321" s="14"/>
       <c r="Q321" s="57" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="R321" s="34"/>
     </row>
@@ -27550,7 +27638,7 @@
       </c>
       <c r="P322" s="14"/>
       <c r="Q322" s="57" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="R322" s="34"/>
     </row>
@@ -27601,7 +27689,7 @@
       </c>
       <c r="P323" s="14"/>
       <c r="Q323" s="57" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="R323" s="34"/>
     </row>
@@ -27652,7 +27740,7 @@
       </c>
       <c r="P324" s="14"/>
       <c r="Q324" s="57" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="R324" s="34"/>
     </row>
@@ -27703,7 +27791,7 @@
       </c>
       <c r="P325" s="14"/>
       <c r="Q325" s="57" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="R325" s="34"/>
     </row>
@@ -27754,7 +27842,7 @@
       </c>
       <c r="P326" s="14"/>
       <c r="Q326" s="57" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="R326" s="34"/>
     </row>
@@ -27805,7 +27893,7 @@
       </c>
       <c r="P327" s="14"/>
       <c r="Q327" s="57" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="R327" s="34"/>
     </row>
@@ -27856,7 +27944,7 @@
       </c>
       <c r="P328" s="14"/>
       <c r="Q328" s="57" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="R328" s="34"/>
     </row>
@@ -27907,7 +27995,7 @@
       </c>
       <c r="P329" s="14"/>
       <c r="Q329" s="57" t="s">
-        <v>1089</v>
+        <v>525</v>
       </c>
       <c r="R329" s="34"/>
     </row>
@@ -27916,7 +28004,7 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="B330" s="30"/>
+      <c r="B330" s="27"/>
       <c r="C330" s="37" t="s">
         <v>904</v>
       </c>
@@ -27958,7 +28046,7 @@
       </c>
       <c r="P330" s="14"/>
       <c r="Q330" s="57" t="s">
-        <v>559</v>
+        <v>1089</v>
       </c>
       <c r="R330" s="34"/>
     </row>
@@ -27967,9 +28055,7 @@
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
-      <c r="B331" s="32" t="s">
-        <v>942</v>
-      </c>
+      <c r="B331" s="30"/>
       <c r="C331" s="37" t="s">
         <v>904</v>
       </c>
@@ -27986,43 +28072,41 @@
         <v>904</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>954</v>
+        <v>1057</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="M331" s="37" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="N331" s="56" t="s">
-        <v>1067</v>
-      </c>
-      <c r="O331" s="37" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P331" s="37" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q331" s="54" t="s">
-        <v>1226</v>
+        <v>1102</v>
+      </c>
+      <c r="O331" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P331" s="14"/>
+      <c r="Q331" s="57" t="s">
+        <v>559</v>
       </c>
       <c r="R331" s="34"/>
     </row>
-    <row r="332" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="21">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="B332" s="22" t="s">
+      <c r="B332" s="32" t="s">
         <v>942</v>
       </c>
       <c r="C332" s="37" t="s">
@@ -28041,43 +28125,45 @@
         <v>904</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>1076</v>
+        <v>954</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="K332" s="2" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="M332" s="37" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="N332" s="56" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="O332" s="37" t="s">
-        <v>1354</v>
-      </c>
-      <c r="P332" s="23" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Q332" s="25" t="s">
-        <v>1355</v>
+        <v>1068</v>
+      </c>
+      <c r="P332" s="37" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q332" s="54" t="s">
+        <v>1226</v>
       </c>
       <c r="R332" s="34"/>
     </row>
-    <row r="333" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="21">
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
-      <c r="B333" s="27"/>
+      <c r="B333" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="C333" s="37" t="s">
         <v>904</v>
       </c>
@@ -28103,10 +28189,10 @@
         <v>1075</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M333" s="37" t="s">
         <v>1073</v>
@@ -28115,7 +28201,7 @@
         <v>1074</v>
       </c>
       <c r="O333" s="37" t="s">
-        <v>370</v>
+        <v>1354</v>
       </c>
       <c r="P333" s="23" t="s">
         <v>1351</v>
@@ -28125,7 +28211,7 @@
       </c>
       <c r="R333" s="34"/>
     </row>
-    <row r="334" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:18" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="21">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -28150,29 +28236,31 @@
         <v>1076</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>156</v>
+        <v>1072</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="M334" s="37" t="s">
-        <v>41</v>
+        <v>1073</v>
       </c>
       <c r="N334" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="O334" s="14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="P334" s="14"/>
-      <c r="Q334" s="14" t="s">
-        <v>1081</v>
+        <v>1074</v>
+      </c>
+      <c r="O334" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="P334" s="23" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q334" s="25" t="s">
+        <v>1355</v>
       </c>
       <c r="R334" s="34"/>
     </row>
@@ -28181,7 +28269,7 @@
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="B335" s="30"/>
+      <c r="B335" s="27"/>
       <c r="C335" s="37" t="s">
         <v>904</v>
       </c>
@@ -28201,7 +28289,7 @@
         <v>1076</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="J335" s="2" t="s">
         <v>1080</v>
@@ -28223,12 +28311,63 @@
       </c>
       <c r="P335" s="14"/>
       <c r="Q335" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R335" s="34"/>
+    </row>
+    <row r="336" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="21">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B336" s="30"/>
+      <c r="C336" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="D336" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="E336" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="F336" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="G336" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L336" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M336" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N336" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O336" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P336" s="14"/>
+      <c r="Q336" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="R335" s="34"/>
+      <c r="R336" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R335">
+  <autoFilter ref="A1:R336">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -28238,1732 +28377,1762 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H192:H196 B192:B196 H198:H241 B198:B241 H243:H247 B243:B247 H123:H140 B123:B140 H249:H258 H85:H88 B249:B258 H142:H144 B142:B144 H260:H263 B260:B263 H332:H335 H308:H313 H267:H296 H16:H30 B4:B10 B16:B30 H4:H10 H76:H82 B76:B82 B32:B73 H32:H73 B148 B150 H148 H90:H103 H106:H121 B106:B121 H150 H187:H188 B187:B188 H174:H180 B174:B180 H159:H172 B159:B172 B154:B156 H152:H156 H182:H185 B182:B185 B85:B103">
-    <cfRule type="cellIs" dxfId="344" priority="481" operator="equal">
+  <conditionalFormatting sqref="H192:H196 B192:B196 H244:H248 B244:B248 H123:H140 B123:B140 H250:H259 H85:H88 B250:B259 H142:H144 B142:B144 H261:H264 B261:B264 H333:H336 H309:H314 H268:H297 H16:H30 B4:B10 B16:B30 H4:H10 H76:H82 B76:B82 B32:B73 H32:H73 B148 B150 H148 H90:H103 H106:H121 B106:B121 H150 H187:H188 B187:B188 H174:H180 B174:B180 H159:H172 B159:B172 B154:B156 H152:H156 H182:H185 B182:B185 B85:B103 H198:H218 H221:H242 B198:B218 B221:B242">
+    <cfRule type="cellIs" dxfId="350" priority="487" operator="equal">
       <formula>$H3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I192:I196 I198:I241 I243:I247 I123:I140 I249:I258 I142:I144 I260:I263 I332:I335 I308:I313 I4:I10 I16:I30 I266:I296 I76:I82 I32:I73 I146:I148 I97:I103 I106:I121 I150 I187:I188 I174:I180 I159:I172 I152:I156 I182:I185 I85:I95">
-    <cfRule type="cellIs" dxfId="343" priority="480" operator="equal">
+  <conditionalFormatting sqref="I192:I196 I244:I248 I123:I140 I250:I259 I142:I144 I261:I264 I333:I336 I309:I314 I4:I10 I16:I30 I267:I297 I76:I82 I32:I73 I146:I148 I97:I103 I106:I121 I150 I187:I188 I174:I180 I159:I172 I152:I156 I182:I185 I85:I95 I198:I218 I221:I242">
+    <cfRule type="cellIs" dxfId="349" priority="486" operator="equal">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="cellIs" dxfId="342" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="489" operator="equal">
       <formula>$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K192:K196 K198:K241 K243:K247 K123:K140 K249:K258 K142:K144 K260:K263 K332:K335 K308:K313 K16:K30 K4:K10 K266:K296 K76:K82 K32:K73 K147:K148 K97:K103 K106:K121 K150 K187:K188 K174:K180 K159:K172 K152:K156 K182:K185 K85:K95">
-    <cfRule type="cellIs" dxfId="341" priority="478" operator="equal">
+  <conditionalFormatting sqref="K192:K196 K244:K248 K123:K140 K250:K259 K142:K144 K261:K264 K333:K336 K309:K314 K16:K30 K4:K10 K267:K297 K76:K82 K32:K73 K147:K148 K97:K103 K106:K121 K150 K187:K188 K174:K180 K159:K172 K152:K156 K182:K185 K85:K95 K198:K218 K221:K242">
+    <cfRule type="cellIs" dxfId="347" priority="484" operator="equal">
       <formula>$K3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L192:L196 L198:L241 L243:L247 L123:L140 L249:L258 L142:L144 L260:L263 L332:L335 L308:L313 L4:L10 L16:L30 L266:L296 L76:L82 L32:L73 L147:L148 L97:L103 L106:L121 L150 L187:L188 L174:L180 L159:L172 L152:L156 L182:L185 L85:L95">
-    <cfRule type="cellIs" dxfId="340" priority="477" operator="equal">
+  <conditionalFormatting sqref="L192:L196 L244:L248 L123:L140 L250:L259 L142:L144 L261:L264 L333:L336 L309:L314 L4:L10 L16:L30 L267:L297 L76:L82 L32:L73 L147:L148 L97:L103 L106:L121 L150 L187:L188 L174:L180 L159:L172 L152:L156 L182:L185 L85:L95 L198:L218 L221:L242">
+    <cfRule type="cellIs" dxfId="346" priority="483" operator="equal">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122 B122">
-    <cfRule type="cellIs" dxfId="339" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="495" operator="equal">
       <formula>$H95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="338" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="498" operator="equal">
       <formula>$I95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122">
-    <cfRule type="cellIs" dxfId="337" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="501" operator="equal">
       <formula>$K95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L122">
-    <cfRule type="cellIs" dxfId="336" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="504" operator="equal">
       <formula>$L95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141 B141">
-    <cfRule type="cellIs" dxfId="335" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="513" operator="equal">
       <formula>$H121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="334" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="516" operator="equal">
       <formula>$I140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141">
-    <cfRule type="cellIs" dxfId="333" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="517" operator="equal">
       <formula>$I121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96">
-    <cfRule type="cellIs" dxfId="332" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="520" operator="equal">
       <formula>$K140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K141">
-    <cfRule type="cellIs" dxfId="331" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="521" operator="equal">
       <formula>$K121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="cellIs" dxfId="330" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="524" operator="equal">
       <formula>$L140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L141">
-    <cfRule type="cellIs" dxfId="329" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="525" operator="equal">
       <formula>$L121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="328" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="477" operator="equal">
       <formula>$H133</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H259 B259">
-    <cfRule type="cellIs" dxfId="327" priority="525" operator="equal">
+  <conditionalFormatting sqref="H260 B260">
+    <cfRule type="cellIs" dxfId="333" priority="531" operator="equal">
       <formula>$H30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I259">
-    <cfRule type="cellIs" dxfId="326" priority="531" operator="equal">
+  <conditionalFormatting sqref="I260">
+    <cfRule type="cellIs" dxfId="332" priority="537" operator="equal">
       <formula>$I30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K259">
-    <cfRule type="cellIs" dxfId="325" priority="535" operator="equal">
+  <conditionalFormatting sqref="K260">
+    <cfRule type="cellIs" dxfId="331" priority="541" operator="equal">
       <formula>$K30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="324" priority="538" operator="equal">
+  <conditionalFormatting sqref="L260">
+    <cfRule type="cellIs" dxfId="330" priority="544" operator="equal">
       <formula>$L30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="cellIs" dxfId="323" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="558" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L191">
-    <cfRule type="cellIs" dxfId="322" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="562" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="321" priority="563" operator="equal">
-      <formula>$H241</formula>
+    <cfRule type="cellIs" dxfId="327" priority="569" operator="equal">
+      <formula>$H242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I197">
-    <cfRule type="cellIs" dxfId="320" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="575" operator="equal">
       <formula>$I73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="cellIs" dxfId="319" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="579" operator="equal">
       <formula>$K73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L197">
-    <cfRule type="cellIs" dxfId="318" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="582" operator="equal">
       <formula>$L73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 B3">
-    <cfRule type="cellIs" dxfId="317" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="611" operator="equal">
       <formula>$H196</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="316" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="613" operator="equal">
       <formula>$I196</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="315" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="614" operator="equal">
       <formula>$K196</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="314" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="615" operator="equal">
       <formula>$L196</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="313" priority="612" operator="equal">
-      <formula>$H241</formula>
+    <cfRule type="cellIs" dxfId="319" priority="618" operator="equal">
+      <formula>$H242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="312" priority="618" operator="equal">
-      <formula>$I241</formula>
+    <cfRule type="cellIs" dxfId="318" priority="624" operator="equal">
+      <formula>$I242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="cellIs" dxfId="311" priority="622" operator="equal">
-      <formula>$K241</formula>
+    <cfRule type="cellIs" dxfId="317" priority="628" operator="equal">
+      <formula>$K242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="cellIs" dxfId="310" priority="625" operator="equal">
-      <formula>$L241</formula>
+    <cfRule type="cellIs" dxfId="316" priority="631" operator="equal">
+      <formula>$L242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197 H197">
-    <cfRule type="cellIs" dxfId="309" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="674" operator="equal">
       <formula>$H73</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H242 B242">
-    <cfRule type="cellIs" dxfId="308" priority="671" operator="equal">
+  <conditionalFormatting sqref="H243 B243">
+    <cfRule type="cellIs" dxfId="314" priority="677" operator="equal">
       <formula>$H82</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I242">
-    <cfRule type="cellIs" dxfId="307" priority="677" operator="equal">
+  <conditionalFormatting sqref="I243">
+    <cfRule type="cellIs" dxfId="313" priority="683" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K242">
-    <cfRule type="cellIs" dxfId="306" priority="680" operator="equal">
+  <conditionalFormatting sqref="K243">
+    <cfRule type="cellIs" dxfId="312" priority="686" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L242">
-    <cfRule type="cellIs" dxfId="305" priority="683" operator="equal">
+  <conditionalFormatting sqref="L243">
+    <cfRule type="cellIs" dxfId="311" priority="689" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157 B157">
-    <cfRule type="cellIs" dxfId="304" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="694" operator="equal">
       <formula>$H74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157">
-    <cfRule type="cellIs" dxfId="303" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="696" operator="equal">
       <formula>$I74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K157">
-    <cfRule type="cellIs" dxfId="302" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="697" operator="equal">
       <formula>$K74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="cellIs" dxfId="301" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="698" operator="equal">
       <formula>$L74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H264 B264">
-    <cfRule type="cellIs" dxfId="300" priority="695" operator="equal">
-      <formula>$H247</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I264">
-    <cfRule type="cellIs" dxfId="299" priority="701" operator="equal">
-      <formula>$I247</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K264">
-    <cfRule type="cellIs" dxfId="298" priority="704" operator="equal">
-      <formula>$K247</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L264">
-    <cfRule type="cellIs" dxfId="297" priority="707" operator="equal">
-      <formula>$L247</formula>
+  <conditionalFormatting sqref="H265 B265">
+    <cfRule type="cellIs" dxfId="306" priority="701" operator="equal">
+      <formula>$H248</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I265">
+    <cfRule type="cellIs" dxfId="305" priority="707" operator="equal">
+      <formula>$I248</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K265">
+    <cfRule type="cellIs" dxfId="304" priority="710" operator="equal">
+      <formula>$K248</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L265">
+    <cfRule type="cellIs" dxfId="303" priority="713" operator="equal">
+      <formula>$L248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84 B84">
-    <cfRule type="cellIs" dxfId="296" priority="740" operator="equal">
-      <formula>$H258</formula>
+    <cfRule type="cellIs" dxfId="302" priority="746" operator="equal">
+      <formula>$H259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="295" priority="750" operator="equal">
-      <formula>$I258</formula>
+    <cfRule type="cellIs" dxfId="301" priority="756" operator="equal">
+      <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="294" priority="756" operator="equal">
-      <formula>$K258</formula>
+    <cfRule type="cellIs" dxfId="300" priority="762" operator="equal">
+      <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="cellIs" dxfId="293" priority="762" operator="equal">
-      <formula>$L258</formula>
+    <cfRule type="cellIs" dxfId="299" priority="768" operator="equal">
+      <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158 B158">
-    <cfRule type="cellIs" dxfId="292" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="794" operator="equal">
       <formula>$H144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I158">
-    <cfRule type="cellIs" dxfId="291" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="796" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K158">
-    <cfRule type="cellIs" dxfId="290" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="797" operator="equal">
       <formula>$K144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L158">
-    <cfRule type="cellIs" dxfId="289" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="798" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 B31">
-    <cfRule type="cellIs" dxfId="288" priority="801" operator="equal">
-      <formula>$H263</formula>
+    <cfRule type="cellIs" dxfId="294" priority="807" operator="equal">
+      <formula>$H264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="287" priority="803" operator="equal">
-      <formula>$I263</formula>
+    <cfRule type="cellIs" dxfId="293" priority="809" operator="equal">
+      <formula>$I264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="286" priority="804" operator="equal">
-      <formula>$K263</formula>
+    <cfRule type="cellIs" dxfId="292" priority="810" operator="equal">
+      <formula>$K264</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="285" priority="805" operator="equal">
-      <formula>$L263</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H248 B248">
-    <cfRule type="cellIs" dxfId="284" priority="808" operator="equal">
-      <formula>$H264</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I248">
-    <cfRule type="cellIs" dxfId="283" priority="810" operator="equal">
-      <formula>$I264</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K248">
-    <cfRule type="cellIs" dxfId="282" priority="811" operator="equal">
-      <formula>$K264</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L248">
-    <cfRule type="cellIs" dxfId="281" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="811" operator="equal">
       <formula>$L264</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H249 B249">
+    <cfRule type="cellIs" dxfId="290" priority="814" operator="equal">
+      <formula>$H265</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I249">
+    <cfRule type="cellIs" dxfId="289" priority="816" operator="equal">
+      <formula>$I265</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K249">
+    <cfRule type="cellIs" dxfId="288" priority="817" operator="equal">
+      <formula>$K265</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L249">
+    <cfRule type="cellIs" dxfId="287" priority="818" operator="equal">
+      <formula>$L265</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H189:H190 B189:B190">
-    <cfRule type="cellIs" dxfId="280" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="839" operator="equal">
       <formula>$H180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181 B181">
-    <cfRule type="cellIs" dxfId="279" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="840" operator="equal">
       <formula>$H189</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189:I190">
-    <cfRule type="cellIs" dxfId="278" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="845" operator="equal">
       <formula>$I180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I181">
-    <cfRule type="cellIs" dxfId="277" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="846" operator="equal">
       <formula>$I189</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189:K190">
-    <cfRule type="cellIs" dxfId="276" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="848" operator="equal">
       <formula>$K180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K181">
-    <cfRule type="cellIs" dxfId="275" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="849" operator="equal">
       <formula>$K189</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L189:L190">
-    <cfRule type="cellIs" dxfId="274" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="851" operator="equal">
       <formula>$L180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L181">
-    <cfRule type="cellIs" dxfId="273" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="852" operator="equal">
       <formula>$L189</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J192:J196 J198:J241 J243:J247 J123:J140 J249:J258 J142:J144 J260:J263 J332:J335 J308:J313 J4:J10 J16:J30 J266:J296 J76:J82 J32:J73 J147:J148 J97:J103 J106:J121 J150 J187:J188 J174:J180 J159:J172 J152:J156 J182:J185 J85:J95">
-    <cfRule type="cellIs" dxfId="272" priority="850" operator="equal">
+  <conditionalFormatting sqref="J192:J196 J244:J248 J123:J140 J250:J259 J142:J144 J261:J264 J333:J336 J309:J314 J4:J10 J16:J30 J267:J297 J76:J82 J32:J73 J147:J148 J97:J103 J106:J121 J150 J187:J188 J174:J180 J159:J172 J152:J156 J182:J185 J85:J95 J198:J218 J221:J242">
+    <cfRule type="cellIs" dxfId="278" priority="856" operator="equal">
       <formula>$J3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122">
-    <cfRule type="cellIs" dxfId="271" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="871" operator="equal">
       <formula>$J95</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="270" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="872" operator="equal">
       <formula>$J140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141">
-    <cfRule type="cellIs" dxfId="269" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="873" operator="equal">
       <formula>$J121</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J259">
-    <cfRule type="cellIs" dxfId="268" priority="868" operator="equal">
+  <conditionalFormatting sqref="J260">
+    <cfRule type="cellIs" dxfId="274" priority="874" operator="equal">
       <formula>$J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J191">
-    <cfRule type="cellIs" dxfId="267" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="875" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J197">
-    <cfRule type="cellIs" dxfId="266" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="876" operator="equal">
       <formula>$J73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="265" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="877" operator="equal">
       <formula>$J196</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="264" priority="872" operator="equal">
-      <formula>$J241</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J242">
-    <cfRule type="cellIs" dxfId="263" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="878" operator="equal">
+      <formula>$J242</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J243">
+    <cfRule type="cellIs" dxfId="269" priority="879" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157">
-    <cfRule type="cellIs" dxfId="262" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="880" operator="equal">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J264">
-    <cfRule type="cellIs" dxfId="261" priority="875" operator="equal">
-      <formula>$J247</formula>
+  <conditionalFormatting sqref="J265">
+    <cfRule type="cellIs" dxfId="267" priority="881" operator="equal">
+      <formula>$J248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="260" priority="877" operator="equal">
-      <formula>$J258</formula>
+    <cfRule type="cellIs" dxfId="266" priority="883" operator="equal">
+      <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="259" priority="879" operator="equal">
-      <formula>$J263</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J248">
-    <cfRule type="cellIs" dxfId="258" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="885" operator="equal">
       <formula>$J264</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J249">
+    <cfRule type="cellIs" dxfId="264" priority="886" operator="equal">
+      <formula>$J265</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J189:J190">
-    <cfRule type="cellIs" dxfId="257" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="888" operator="equal">
       <formula>$J180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J181">
-    <cfRule type="cellIs" dxfId="256" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="889" operator="equal">
       <formula>$J189</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R192:R264 R75:R83 R16:R73 R4:R10 R148 R150 R106:R144 R187:R190 R158:R172 R154:R156 R174:R185 R85:R104">
-    <cfRule type="cellIs" dxfId="255" priority="470" operator="equal">
+  <conditionalFormatting sqref="R75:R83 R16:R73 R4:R10 R148 R150 R106:R144 R187:R190 R158:R172 R154:R156 R174:R185 R85:R104 R192:R218 R221:R265">
+    <cfRule type="cellIs" dxfId="261" priority="476" operator="equal">
       <formula>$R3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H265">
-    <cfRule type="cellIs" dxfId="254" priority="469" operator="equal">
+  <conditionalFormatting sqref="H266">
+    <cfRule type="cellIs" dxfId="260" priority="475" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H266">
-    <cfRule type="cellIs" dxfId="253" priority="468" operator="equal">
-      <formula>$H265</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H314">
-    <cfRule type="cellIs" dxfId="252" priority="461" operator="equal">
-      <formula>$H313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I314">
-    <cfRule type="cellIs" dxfId="251" priority="460" operator="equal">
-      <formula>$I313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K314">
-    <cfRule type="cellIs" dxfId="250" priority="459" operator="equal">
-      <formula>$K313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L314">
-    <cfRule type="cellIs" dxfId="249" priority="458" operator="equal">
-      <formula>$L313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J314">
+  <conditionalFormatting sqref="H267">
+    <cfRule type="cellIs" dxfId="259" priority="474" operator="equal">
+      <formula>$H266</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H315">
+    <cfRule type="cellIs" dxfId="258" priority="467" operator="equal">
+      <formula>$H314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I315">
+    <cfRule type="cellIs" dxfId="257" priority="466" operator="equal">
+      <formula>$I314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K315">
+    <cfRule type="cellIs" dxfId="256" priority="465" operator="equal">
+      <formula>$K314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L315">
+    <cfRule type="cellIs" dxfId="255" priority="464" operator="equal">
+      <formula>$L314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J315">
+    <cfRule type="cellIs" dxfId="254" priority="468" operator="equal">
+      <formula>$J314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H332">
+    <cfRule type="cellIs" dxfId="253" priority="890" operator="equal">
+      <formula>$H314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I332">
+    <cfRule type="cellIs" dxfId="252" priority="891" operator="equal">
+      <formula>$I314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K332">
+    <cfRule type="cellIs" dxfId="251" priority="892" operator="equal">
+      <formula>$K314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L332">
+    <cfRule type="cellIs" dxfId="250" priority="893" operator="equal">
+      <formula>$L314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J332">
+    <cfRule type="cellIs" dxfId="249" priority="894" operator="equal">
+      <formula>$J314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H316">
     <cfRule type="cellIs" dxfId="248" priority="462" operator="equal">
-      <formula>$J313</formula>
+      <formula>$H315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I316">
+    <cfRule type="cellIs" dxfId="247" priority="461" operator="equal">
+      <formula>$I315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K316">
+    <cfRule type="cellIs" dxfId="246" priority="460" operator="equal">
+      <formula>$K315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L316">
+    <cfRule type="cellIs" dxfId="245" priority="459" operator="equal">
+      <formula>$L315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J316">
+    <cfRule type="cellIs" dxfId="244" priority="463" operator="equal">
+      <formula>$J315</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H326">
+    <cfRule type="cellIs" dxfId="243" priority="457" operator="equal">
+      <formula>$H316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I326">
+    <cfRule type="cellIs" dxfId="242" priority="456" operator="equal">
+      <formula>$I316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K326">
+    <cfRule type="cellIs" dxfId="241" priority="455" operator="equal">
+      <formula>$K316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L326">
+    <cfRule type="cellIs" dxfId="240" priority="454" operator="equal">
+      <formula>$L316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J326">
+    <cfRule type="cellIs" dxfId="239" priority="458" operator="equal">
+      <formula>$J316</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H317 H105 B105 H186 B186 B153 H220 B220">
+    <cfRule type="cellIs" dxfId="238" priority="452" operator="equal">
+      <formula>$H103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I317 I105 I186 I220">
+    <cfRule type="cellIs" dxfId="237" priority="451" operator="equal">
+      <formula>$I103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K317 K105 K186 K220">
+    <cfRule type="cellIs" dxfId="236" priority="450" operator="equal">
+      <formula>$K103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L317 L105 L186 L220">
+    <cfRule type="cellIs" dxfId="235" priority="449" operator="equal">
+      <formula>$L103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J317 J105 J186 J220">
+    <cfRule type="cellIs" dxfId="234" priority="453" operator="equal">
+      <formula>$J103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H323">
+    <cfRule type="cellIs" dxfId="233" priority="447" operator="equal">
+      <formula>$H317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I323">
+    <cfRule type="cellIs" dxfId="232" priority="446" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K323">
+    <cfRule type="cellIs" dxfId="231" priority="445" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L323">
+    <cfRule type="cellIs" dxfId="230" priority="444" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J323">
+    <cfRule type="cellIs" dxfId="229" priority="448" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H324">
+    <cfRule type="cellIs" dxfId="228" priority="442" operator="equal">
+      <formula>$H323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I324">
+    <cfRule type="cellIs" dxfId="227" priority="441" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K324">
+    <cfRule type="cellIs" dxfId="226" priority="440" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L324">
+    <cfRule type="cellIs" dxfId="225" priority="439" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J324">
+    <cfRule type="cellIs" dxfId="224" priority="443" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H325">
+    <cfRule type="cellIs" dxfId="223" priority="437" operator="equal">
+      <formula>$H323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I325">
+    <cfRule type="cellIs" dxfId="222" priority="436" operator="equal">
+      <formula>$I323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K325">
+    <cfRule type="cellIs" dxfId="221" priority="435" operator="equal">
+      <formula>$K323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L325">
+    <cfRule type="cellIs" dxfId="220" priority="434" operator="equal">
+      <formula>$L323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J325">
+    <cfRule type="cellIs" dxfId="219" priority="438" operator="equal">
+      <formula>$J323</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H318 B14">
+    <cfRule type="cellIs" dxfId="218" priority="432" operator="equal">
+      <formula>$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I318">
+    <cfRule type="cellIs" dxfId="217" priority="431" operator="equal">
+      <formula>$I314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K318">
+    <cfRule type="cellIs" dxfId="216" priority="430" operator="equal">
+      <formula>$K314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L318">
+    <cfRule type="cellIs" dxfId="215" priority="429" operator="equal">
+      <formula>$L314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J318">
+    <cfRule type="cellIs" dxfId="214" priority="433" operator="equal">
+      <formula>$J314</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H319">
+    <cfRule type="cellIs" dxfId="213" priority="427" operator="equal">
+      <formula>$H318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I319">
+    <cfRule type="cellIs" dxfId="212" priority="426" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K319">
+    <cfRule type="cellIs" dxfId="211" priority="425" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L319">
+    <cfRule type="cellIs" dxfId="210" priority="424" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J319">
+    <cfRule type="cellIs" dxfId="209" priority="428" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H320">
+    <cfRule type="cellIs" dxfId="208" priority="422" operator="equal">
+      <formula>$H318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I320">
+    <cfRule type="cellIs" dxfId="207" priority="421" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K320">
+    <cfRule type="cellIs" dxfId="206" priority="420" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L320">
+    <cfRule type="cellIs" dxfId="205" priority="419" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J320">
+    <cfRule type="cellIs" dxfId="204" priority="423" operator="equal">
+      <formula>$J318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H321">
+    <cfRule type="cellIs" dxfId="203" priority="417" operator="equal">
+      <formula>$H320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I321">
+    <cfRule type="cellIs" dxfId="202" priority="416" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K321">
+    <cfRule type="cellIs" dxfId="201" priority="415" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L321">
+    <cfRule type="cellIs" dxfId="200" priority="414" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J321">
+    <cfRule type="cellIs" dxfId="199" priority="418" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H322">
+    <cfRule type="cellIs" dxfId="198" priority="412" operator="equal">
+      <formula>$H320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I322">
+    <cfRule type="cellIs" dxfId="197" priority="411" operator="equal">
+      <formula>$I320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K322">
+    <cfRule type="cellIs" dxfId="196" priority="410" operator="equal">
+      <formula>$K320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L322">
+    <cfRule type="cellIs" dxfId="195" priority="409" operator="equal">
+      <formula>$L320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J322">
+    <cfRule type="cellIs" dxfId="194" priority="413" operator="equal">
+      <formula>$J320</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H327">
+    <cfRule type="cellIs" dxfId="193" priority="407" operator="equal">
+      <formula>$H317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I327">
+    <cfRule type="cellIs" dxfId="192" priority="406" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K327">
+    <cfRule type="cellIs" dxfId="191" priority="405" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L327">
+    <cfRule type="cellIs" dxfId="190" priority="404" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J327">
+    <cfRule type="cellIs" dxfId="189" priority="408" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H330">
+    <cfRule type="cellIs" dxfId="188" priority="402" operator="equal">
+      <formula>$H318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I330">
+    <cfRule type="cellIs" dxfId="187" priority="401" operator="equal">
+      <formula>$I318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K330">
+    <cfRule type="cellIs" dxfId="186" priority="400" operator="equal">
+      <formula>$K318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L330">
+    <cfRule type="cellIs" dxfId="185" priority="399" operator="equal">
+      <formula>$L318</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J330">
+    <cfRule type="cellIs" dxfId="184" priority="403" operator="equal">
+      <formula>$J318</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H331">
-    <cfRule type="cellIs" dxfId="247" priority="884" operator="equal">
-      <formula>$H313</formula>
+    <cfRule type="cellIs" dxfId="183" priority="397" operator="equal">
+      <formula>$H319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I331">
-    <cfRule type="cellIs" dxfId="246" priority="885" operator="equal">
-      <formula>$I313</formula>
+    <cfRule type="cellIs" dxfId="182" priority="396" operator="equal">
+      <formula>$I319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K331">
-    <cfRule type="cellIs" dxfId="245" priority="886" operator="equal">
-      <formula>$K313</formula>
+    <cfRule type="cellIs" dxfId="181" priority="395" operator="equal">
+      <formula>$K319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L331">
-    <cfRule type="cellIs" dxfId="244" priority="887" operator="equal">
-      <formula>$L313</formula>
+    <cfRule type="cellIs" dxfId="180" priority="394" operator="equal">
+      <formula>$L319</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J331">
-    <cfRule type="cellIs" dxfId="243" priority="888" operator="equal">
-      <formula>$J313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H315">
-    <cfRule type="cellIs" dxfId="242" priority="456" operator="equal">
-      <formula>$H314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I315">
-    <cfRule type="cellIs" dxfId="241" priority="455" operator="equal">
-      <formula>$I314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K315">
-    <cfRule type="cellIs" dxfId="240" priority="454" operator="equal">
-      <formula>$K314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L315">
-    <cfRule type="cellIs" dxfId="239" priority="453" operator="equal">
-      <formula>$L314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J315">
-    <cfRule type="cellIs" dxfId="238" priority="457" operator="equal">
-      <formula>$J314</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H325">
-    <cfRule type="cellIs" dxfId="237" priority="451" operator="equal">
-      <formula>$H315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I325">
-    <cfRule type="cellIs" dxfId="236" priority="450" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K325">
-    <cfRule type="cellIs" dxfId="235" priority="449" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L325">
-    <cfRule type="cellIs" dxfId="234" priority="448" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J325">
-    <cfRule type="cellIs" dxfId="233" priority="452" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H316 H105 B105 H186 B186 B153">
-    <cfRule type="cellIs" dxfId="232" priority="446" operator="equal">
-      <formula>$H103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I316 I105 I186">
-    <cfRule type="cellIs" dxfId="231" priority="445" operator="equal">
-      <formula>$I103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K316 K105 K186">
-    <cfRule type="cellIs" dxfId="230" priority="444" operator="equal">
-      <formula>$K103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L316 L105 L186">
-    <cfRule type="cellIs" dxfId="229" priority="443" operator="equal">
-      <formula>$L103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J316 J105 J186">
-    <cfRule type="cellIs" dxfId="228" priority="447" operator="equal">
-      <formula>$J103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H322">
-    <cfRule type="cellIs" dxfId="227" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="398" operator="equal">
+      <formula>$J319</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H328">
+    <cfRule type="cellIs" dxfId="178" priority="392" operator="equal">
       <formula>$H316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I322">
-    <cfRule type="cellIs" dxfId="226" priority="440" operator="equal">
+  <conditionalFormatting sqref="I328">
+    <cfRule type="cellIs" dxfId="177" priority="391" operator="equal">
       <formula>$I316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K322">
-    <cfRule type="cellIs" dxfId="225" priority="439" operator="equal">
+  <conditionalFormatting sqref="K328">
+    <cfRule type="cellIs" dxfId="176" priority="390" operator="equal">
       <formula>$K316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L322">
-    <cfRule type="cellIs" dxfId="224" priority="438" operator="equal">
+  <conditionalFormatting sqref="L328">
+    <cfRule type="cellIs" dxfId="175" priority="389" operator="equal">
       <formula>$L316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J322">
-    <cfRule type="cellIs" dxfId="223" priority="442" operator="equal">
+  <conditionalFormatting sqref="J328">
+    <cfRule type="cellIs" dxfId="174" priority="393" operator="equal">
       <formula>$J316</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H323">
-    <cfRule type="cellIs" dxfId="222" priority="436" operator="equal">
-      <formula>$H322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I323">
-    <cfRule type="cellIs" dxfId="221" priority="435" operator="equal">
-      <formula>$I322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K323">
-    <cfRule type="cellIs" dxfId="220" priority="434" operator="equal">
-      <formula>$K322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L323">
-    <cfRule type="cellIs" dxfId="219" priority="433" operator="equal">
-      <formula>$L322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J323">
-    <cfRule type="cellIs" dxfId="218" priority="437" operator="equal">
-      <formula>$J322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H324">
-    <cfRule type="cellIs" dxfId="217" priority="431" operator="equal">
-      <formula>$H322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I324">
-    <cfRule type="cellIs" dxfId="216" priority="430" operator="equal">
-      <formula>$I322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K324">
-    <cfRule type="cellIs" dxfId="215" priority="429" operator="equal">
-      <formula>$K322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L324">
-    <cfRule type="cellIs" dxfId="214" priority="428" operator="equal">
-      <formula>$L322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J324">
-    <cfRule type="cellIs" dxfId="213" priority="432" operator="equal">
-      <formula>$J322</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H317 B14">
-    <cfRule type="cellIs" dxfId="212" priority="426" operator="equal">
+  <conditionalFormatting sqref="H329">
+    <cfRule type="cellIs" dxfId="173" priority="387" operator="equal">
+      <formula>$H317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I329">
+    <cfRule type="cellIs" dxfId="172" priority="386" operator="equal">
+      <formula>$I317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K329">
+    <cfRule type="cellIs" dxfId="171" priority="385" operator="equal">
+      <formula>$K317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L329">
+    <cfRule type="cellIs" dxfId="170" priority="384" operator="equal">
+      <formula>$L317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J329">
+    <cfRule type="cellIs" dxfId="169" priority="388" operator="equal">
+      <formula>$J317</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H307:H308">
+    <cfRule type="cellIs" dxfId="168" priority="379" operator="equal">
+      <formula>$H296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I307:I308">
+    <cfRule type="cellIs" dxfId="167" priority="380" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K307:K308">
+    <cfRule type="cellIs" dxfId="166" priority="381" operator="equal">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L307:L308">
+    <cfRule type="cellIs" dxfId="165" priority="382" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J307:J308">
+    <cfRule type="cellIs" dxfId="164" priority="383" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H306">
+    <cfRule type="cellIs" dxfId="163" priority="377" operator="equal">
+      <formula>$H295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I306">
+    <cfRule type="cellIs" dxfId="162" priority="376" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K306">
+    <cfRule type="cellIs" dxfId="161" priority="375" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L306">
+    <cfRule type="cellIs" dxfId="160" priority="374" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J306">
+    <cfRule type="cellIs" dxfId="159" priority="378" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H305">
+    <cfRule type="cellIs" dxfId="158" priority="369" operator="equal">
+      <formula>$H294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I305">
+    <cfRule type="cellIs" dxfId="157" priority="370" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K305">
+    <cfRule type="cellIs" dxfId="156" priority="371" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L305">
+    <cfRule type="cellIs" dxfId="155" priority="372" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J305">
+    <cfRule type="cellIs" dxfId="154" priority="373" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H299">
+    <cfRule type="cellIs" dxfId="153" priority="367" operator="equal">
+      <formula>$H293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I299">
+    <cfRule type="cellIs" dxfId="152" priority="366" operator="equal">
+      <formula>$I293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K299">
+    <cfRule type="cellIs" dxfId="151" priority="365" operator="equal">
+      <formula>$K293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L299">
+    <cfRule type="cellIs" dxfId="150" priority="364" operator="equal">
+      <formula>$L293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J299">
+    <cfRule type="cellIs" dxfId="149" priority="368" operator="equal">
+      <formula>$J293</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J300">
+    <cfRule type="cellIs" dxfId="148" priority="358" operator="equal">
+      <formula>$J294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H300">
+    <cfRule type="cellIs" dxfId="147" priority="357" operator="equal">
+      <formula>$H294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I300">
+    <cfRule type="cellIs" dxfId="146" priority="356" operator="equal">
+      <formula>$I294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K300">
+    <cfRule type="cellIs" dxfId="145" priority="355" operator="equal">
+      <formula>$K294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L300">
+    <cfRule type="cellIs" dxfId="144" priority="354" operator="equal">
+      <formula>$L294</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H301">
+    <cfRule type="cellIs" dxfId="143" priority="352" operator="equal">
+      <formula>$H295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I301">
+    <cfRule type="cellIs" dxfId="142" priority="351" operator="equal">
+      <formula>$I295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K301">
+    <cfRule type="cellIs" dxfId="141" priority="350" operator="equal">
+      <formula>$K295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L301">
+    <cfRule type="cellIs" dxfId="140" priority="349" operator="equal">
+      <formula>$L295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J301">
+    <cfRule type="cellIs" dxfId="139" priority="353" operator="equal">
+      <formula>$J295</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H302">
+    <cfRule type="cellIs" dxfId="138" priority="347" operator="equal">
+      <formula>$H296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I302">
+    <cfRule type="cellIs" dxfId="137" priority="346" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K302">
+    <cfRule type="cellIs" dxfId="136" priority="345" operator="equal">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L302">
+    <cfRule type="cellIs" dxfId="135" priority="344" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J302">
+    <cfRule type="cellIs" dxfId="134" priority="348" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H304">
+    <cfRule type="cellIs" dxfId="133" priority="342" operator="equal">
+      <formula>$H297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I304">
+    <cfRule type="cellIs" dxfId="132" priority="341" operator="equal">
+      <formula>$I297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K304">
+    <cfRule type="cellIs" dxfId="131" priority="340" operator="equal">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L304">
+    <cfRule type="cellIs" dxfId="130" priority="339" operator="equal">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J304">
+    <cfRule type="cellIs" dxfId="129" priority="343" operator="equal">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H303">
+    <cfRule type="cellIs" dxfId="128" priority="337" operator="equal">
+      <formula>$H296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I303">
+    <cfRule type="cellIs" dxfId="127" priority="336" operator="equal">
+      <formula>$I296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K303">
+    <cfRule type="cellIs" dxfId="126" priority="335" operator="equal">
+      <formula>$K296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L303">
+    <cfRule type="cellIs" dxfId="125" priority="334" operator="equal">
+      <formula>$L296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J303">
+    <cfRule type="cellIs" dxfId="124" priority="338" operator="equal">
+      <formula>$J296</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J298">
+    <cfRule type="cellIs" dxfId="123" priority="333" operator="equal">
+      <formula>$J297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K298">
+    <cfRule type="cellIs" dxfId="122" priority="332" operator="equal">
+      <formula>$K297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L298">
+    <cfRule type="cellIs" dxfId="121" priority="331" operator="equal">
+      <formula>$L297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I298">
+    <cfRule type="cellIs" dxfId="120" priority="330" operator="equal">
+      <formula>$I297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H298">
+    <cfRule type="cellIs" dxfId="119" priority="329" operator="equal">
+      <formula>$H297</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15 R173">
+    <cfRule type="cellIs" dxfId="118" priority="916" operator="equal">
+      <formula>$R10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 H15 H173 B173">
+    <cfRule type="cellIs" dxfId="117" priority="919" operator="equal">
       <formula>$H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I317">
-    <cfRule type="cellIs" dxfId="211" priority="425" operator="equal">
-      <formula>$I313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K317">
-    <cfRule type="cellIs" dxfId="210" priority="424" operator="equal">
-      <formula>$K313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L317">
-    <cfRule type="cellIs" dxfId="209" priority="423" operator="equal">
-      <formula>$L313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J317">
-    <cfRule type="cellIs" dxfId="208" priority="427" operator="equal">
-      <formula>$J313</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H318">
-    <cfRule type="cellIs" dxfId="207" priority="421" operator="equal">
-      <formula>$H317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I318">
-    <cfRule type="cellIs" dxfId="206" priority="420" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K318">
-    <cfRule type="cellIs" dxfId="205" priority="419" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L318">
-    <cfRule type="cellIs" dxfId="204" priority="418" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J318">
-    <cfRule type="cellIs" dxfId="203" priority="422" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H319">
-    <cfRule type="cellIs" dxfId="202" priority="416" operator="equal">
-      <formula>$H317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I319">
-    <cfRule type="cellIs" dxfId="201" priority="415" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K319">
-    <cfRule type="cellIs" dxfId="200" priority="414" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L319">
-    <cfRule type="cellIs" dxfId="199" priority="413" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J319">
-    <cfRule type="cellIs" dxfId="198" priority="417" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H320">
-    <cfRule type="cellIs" dxfId="197" priority="411" operator="equal">
-      <formula>$H319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I320">
-    <cfRule type="cellIs" dxfId="196" priority="410" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K320">
-    <cfRule type="cellIs" dxfId="195" priority="409" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L320">
-    <cfRule type="cellIs" dxfId="194" priority="408" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J320">
-    <cfRule type="cellIs" dxfId="193" priority="412" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H321">
-    <cfRule type="cellIs" dxfId="192" priority="406" operator="equal">
-      <formula>$H319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I321">
-    <cfRule type="cellIs" dxfId="191" priority="405" operator="equal">
-      <formula>$I319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K321">
-    <cfRule type="cellIs" dxfId="190" priority="404" operator="equal">
-      <formula>$K319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L321">
-    <cfRule type="cellIs" dxfId="189" priority="403" operator="equal">
-      <formula>$L319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J321">
-    <cfRule type="cellIs" dxfId="188" priority="407" operator="equal">
-      <formula>$J319</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H326">
-    <cfRule type="cellIs" dxfId="187" priority="401" operator="equal">
-      <formula>$H316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I326">
-    <cfRule type="cellIs" dxfId="186" priority="400" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K326">
-    <cfRule type="cellIs" dxfId="185" priority="399" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L326">
-    <cfRule type="cellIs" dxfId="184" priority="398" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J326">
-    <cfRule type="cellIs" dxfId="183" priority="402" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H329">
-    <cfRule type="cellIs" dxfId="182" priority="396" operator="equal">
-      <formula>$H317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I329">
-    <cfRule type="cellIs" dxfId="181" priority="395" operator="equal">
-      <formula>$I317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K329">
-    <cfRule type="cellIs" dxfId="180" priority="394" operator="equal">
-      <formula>$K317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L329">
-    <cfRule type="cellIs" dxfId="179" priority="393" operator="equal">
-      <formula>$L317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J329">
-    <cfRule type="cellIs" dxfId="178" priority="397" operator="equal">
-      <formula>$J317</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H330">
-    <cfRule type="cellIs" dxfId="177" priority="391" operator="equal">
-      <formula>$H318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I330">
-    <cfRule type="cellIs" dxfId="176" priority="390" operator="equal">
-      <formula>$I318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K330">
-    <cfRule type="cellIs" dxfId="175" priority="389" operator="equal">
-      <formula>$K318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L330">
-    <cfRule type="cellIs" dxfId="174" priority="388" operator="equal">
-      <formula>$L318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J330">
-    <cfRule type="cellIs" dxfId="173" priority="392" operator="equal">
-      <formula>$J318</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H327">
-    <cfRule type="cellIs" dxfId="172" priority="386" operator="equal">
-      <formula>$H315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I327">
-    <cfRule type="cellIs" dxfId="171" priority="385" operator="equal">
-      <formula>$I315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K327">
-    <cfRule type="cellIs" dxfId="170" priority="384" operator="equal">
-      <formula>$K315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L327">
-    <cfRule type="cellIs" dxfId="169" priority="383" operator="equal">
-      <formula>$L315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J327">
-    <cfRule type="cellIs" dxfId="168" priority="387" operator="equal">
-      <formula>$J315</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H328">
-    <cfRule type="cellIs" dxfId="167" priority="381" operator="equal">
-      <formula>$H316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I328">
-    <cfRule type="cellIs" dxfId="166" priority="380" operator="equal">
-      <formula>$I316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K328">
-    <cfRule type="cellIs" dxfId="165" priority="379" operator="equal">
-      <formula>$K316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L328">
-    <cfRule type="cellIs" dxfId="164" priority="378" operator="equal">
-      <formula>$L316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J328">
-    <cfRule type="cellIs" dxfId="163" priority="382" operator="equal">
-      <formula>$J316</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H306:H307">
-    <cfRule type="cellIs" dxfId="162" priority="373" operator="equal">
-      <formula>$H295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I306:I307">
-    <cfRule type="cellIs" dxfId="161" priority="374" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K306:K307">
-    <cfRule type="cellIs" dxfId="160" priority="375" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L306:L307">
-    <cfRule type="cellIs" dxfId="159" priority="376" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J306:J307">
-    <cfRule type="cellIs" dxfId="158" priority="377" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H305">
-    <cfRule type="cellIs" dxfId="157" priority="371" operator="equal">
-      <formula>$H294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I305">
-    <cfRule type="cellIs" dxfId="156" priority="370" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K305">
-    <cfRule type="cellIs" dxfId="155" priority="369" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="154" priority="368" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J305">
-    <cfRule type="cellIs" dxfId="153" priority="372" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H304">
-    <cfRule type="cellIs" dxfId="152" priority="363" operator="equal">
-      <formula>$H293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I304">
-    <cfRule type="cellIs" dxfId="151" priority="364" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K304">
-    <cfRule type="cellIs" dxfId="150" priority="365" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L304">
-    <cfRule type="cellIs" dxfId="149" priority="366" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J304">
-    <cfRule type="cellIs" dxfId="148" priority="367" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H298">
-    <cfRule type="cellIs" dxfId="147" priority="361" operator="equal">
-      <formula>$H292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I298">
-    <cfRule type="cellIs" dxfId="146" priority="360" operator="equal">
-      <formula>$I292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K298">
-    <cfRule type="cellIs" dxfId="145" priority="359" operator="equal">
-      <formula>$K292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L298">
-    <cfRule type="cellIs" dxfId="144" priority="358" operator="equal">
-      <formula>$L292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J298">
-    <cfRule type="cellIs" dxfId="143" priority="362" operator="equal">
-      <formula>$J292</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J299">
-    <cfRule type="cellIs" dxfId="142" priority="352" operator="equal">
-      <formula>$J293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H299">
-    <cfRule type="cellIs" dxfId="141" priority="351" operator="equal">
-      <formula>$H293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I299">
-    <cfRule type="cellIs" dxfId="140" priority="350" operator="equal">
-      <formula>$I293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K299">
-    <cfRule type="cellIs" dxfId="139" priority="349" operator="equal">
-      <formula>$K293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L299">
-    <cfRule type="cellIs" dxfId="138" priority="348" operator="equal">
-      <formula>$L293</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="137" priority="346" operator="equal">
-      <formula>$H294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I300">
-    <cfRule type="cellIs" dxfId="136" priority="345" operator="equal">
-      <formula>$I294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K300">
-    <cfRule type="cellIs" dxfId="135" priority="344" operator="equal">
-      <formula>$K294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L300">
-    <cfRule type="cellIs" dxfId="134" priority="343" operator="equal">
-      <formula>$L294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J300">
-    <cfRule type="cellIs" dxfId="133" priority="347" operator="equal">
-      <formula>$J294</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H301">
-    <cfRule type="cellIs" dxfId="132" priority="341" operator="equal">
-      <formula>$H295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I301">
-    <cfRule type="cellIs" dxfId="131" priority="340" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K301">
-    <cfRule type="cellIs" dxfId="130" priority="339" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L301">
-    <cfRule type="cellIs" dxfId="129" priority="338" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J301">
-    <cfRule type="cellIs" dxfId="128" priority="342" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H303">
-    <cfRule type="cellIs" dxfId="127" priority="336" operator="equal">
-      <formula>$H296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
-    <cfRule type="cellIs" dxfId="126" priority="335" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K303">
-    <cfRule type="cellIs" dxfId="125" priority="334" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L303">
-    <cfRule type="cellIs" dxfId="124" priority="333" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J303">
-    <cfRule type="cellIs" dxfId="123" priority="337" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H302">
-    <cfRule type="cellIs" dxfId="122" priority="331" operator="equal">
-      <formula>$H295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I302">
-    <cfRule type="cellIs" dxfId="121" priority="330" operator="equal">
-      <formula>$I295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K302">
-    <cfRule type="cellIs" dxfId="120" priority="329" operator="equal">
-      <formula>$K295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L302">
-    <cfRule type="cellIs" dxfId="119" priority="328" operator="equal">
-      <formula>$L295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J302">
-    <cfRule type="cellIs" dxfId="118" priority="332" operator="equal">
-      <formula>$J295</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J297">
-    <cfRule type="cellIs" dxfId="117" priority="327" operator="equal">
-      <formula>$J296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K297">
-    <cfRule type="cellIs" dxfId="116" priority="326" operator="equal">
-      <formula>$K296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L297">
-    <cfRule type="cellIs" dxfId="115" priority="325" operator="equal">
-      <formula>$L296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I297">
-    <cfRule type="cellIs" dxfId="114" priority="324" operator="equal">
-      <formula>$I296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H297">
-    <cfRule type="cellIs" dxfId="113" priority="323" operator="equal">
-      <formula>$H296</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15 R173">
-    <cfRule type="cellIs" dxfId="112" priority="910" operator="equal">
+  <conditionalFormatting sqref="I15 I173">
+    <cfRule type="cellIs" dxfId="116" priority="921" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15 K173">
+    <cfRule type="cellIs" dxfId="115" priority="922" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15 L173">
+    <cfRule type="cellIs" dxfId="114" priority="923" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15 J173">
+    <cfRule type="cellIs" dxfId="113" priority="924" operator="equal">
+      <formula>$J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="112" priority="321" operator="equal">
+      <formula>$J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="111" priority="296" operator="equal">
+      <formula>$L10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="110" priority="292" operator="equal">
+      <formula>$L11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="109" priority="291" operator="equal">
+      <formula>$L12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="108" priority="290" operator="equal">
+      <formula>$L13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="107" priority="289" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15 H15 H173 B173">
-    <cfRule type="cellIs" dxfId="111" priority="913" operator="equal">
+  <conditionalFormatting sqref="R12">
+    <cfRule type="cellIs" dxfId="106" priority="288" operator="equal">
+      <formula>$R11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="105" priority="287" operator="equal">
+      <formula>$R12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="104" priority="286" operator="equal">
+      <formula>$R13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="103" priority="285" operator="equal">
+      <formula>$J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="102" priority="284" operator="equal">
+      <formula>$J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="101" priority="283" operator="equal">
+      <formula>$J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="100" priority="282" operator="equal">
+      <formula>$K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="99" priority="281" operator="equal">
+      <formula>$K11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="98" priority="280" operator="equal">
+      <formula>$K12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="97" priority="279" operator="equal">
+      <formula>$K13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="96" priority="278" operator="equal">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="95" priority="277" operator="equal">
+      <formula>$I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="94" priority="276" operator="equal">
+      <formula>$I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="93" priority="275" operator="equal">
+      <formula>$I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="92" priority="272" operator="equal">
       <formula>$H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 I173">
-    <cfRule type="cellIs" dxfId="110" priority="915" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15 K173">
-    <cfRule type="cellIs" dxfId="109" priority="916" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15 L173">
-    <cfRule type="cellIs" dxfId="108" priority="917" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15 J173">
-    <cfRule type="cellIs" dxfId="107" priority="918" operator="equal">
-      <formula>$J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="106" priority="315" operator="equal">
-      <formula>$J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="105" priority="290" operator="equal">
-      <formula>$L10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="104" priority="286" operator="equal">
-      <formula>$L11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="103" priority="285" operator="equal">
-      <formula>$L12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="102" priority="284" operator="equal">
-      <formula>$L13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="101" priority="283" operator="equal">
-      <formula>$R10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="100" priority="282" operator="equal">
-      <formula>$R11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="99" priority="281" operator="equal">
-      <formula>$R12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="98" priority="280" operator="equal">
-      <formula>$R13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="97" priority="279" operator="equal">
-      <formula>$J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="96" priority="278" operator="equal">
-      <formula>$J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="95" priority="277" operator="equal">
-      <formula>$J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="94" priority="276" operator="equal">
-      <formula>$K10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="93" priority="275" operator="equal">
-      <formula>$K11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="92" priority="274" operator="equal">
-      <formula>$K12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="91" priority="273" operator="equal">
-      <formula>$K13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="90" priority="272" operator="equal">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="89" priority="271" operator="equal">
-      <formula>$I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="88" priority="270" operator="equal">
-      <formula>$I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="87" priority="269" operator="equal">
-      <formula>$I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="91" priority="271" operator="equal">
+      <formula>$H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="90" priority="270" operator="equal">
+      <formula>$H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="89" priority="269" operator="equal">
+      <formula>$H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="88" priority="268" operator="equal">
+      <formula>$H6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="87" priority="267" operator="equal">
+      <formula>$H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="86" priority="266" operator="equal">
-      <formula>$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="85" priority="265" operator="equal">
-      <formula>$H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="84" priority="264" operator="equal">
-      <formula>$H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="83" priority="263" operator="equal">
-      <formula>$H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="82" priority="262" operator="equal">
-      <formula>$H6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="81" priority="261" operator="equal">
-      <formula>$H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="80" priority="260" operator="equal">
       <formula>$H8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I265">
-    <cfRule type="cellIs" dxfId="79" priority="923" operator="equal">
+  <conditionalFormatting sqref="I266">
+    <cfRule type="cellIs" dxfId="85" priority="929" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K265">
-    <cfRule type="cellIs" dxfId="78" priority="926" operator="equal">
+  <conditionalFormatting sqref="K266">
+    <cfRule type="cellIs" dxfId="84" priority="932" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L265">
-    <cfRule type="cellIs" dxfId="77" priority="928" operator="equal">
+  <conditionalFormatting sqref="L266">
+    <cfRule type="cellIs" dxfId="83" priority="934" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J265">
-    <cfRule type="cellIs" dxfId="76" priority="930" operator="equal">
+  <conditionalFormatting sqref="J266">
+    <cfRule type="cellIs" dxfId="82" priority="936" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158">
-    <cfRule type="cellIs" dxfId="75" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="946" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R191">
-    <cfRule type="cellIs" dxfId="74" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="948" operator="equal">
       <formula>$R144</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R105 R186 R153">
-    <cfRule type="cellIs" dxfId="73" priority="954" operator="equal">
+  <conditionalFormatting sqref="R105 R186 R153 R220">
+    <cfRule type="cellIs" dxfId="79" priority="960" operator="equal">
       <formula>$R103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="72" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="219" operator="equal">
       <formula>$H145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="71" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="217" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="70" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="216" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="69" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R145">
-    <cfRule type="cellIs" dxfId="68" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="226" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147">
-    <cfRule type="cellIs" dxfId="67" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="227" operator="equal">
       <formula>$R145</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R146">
-    <cfRule type="cellIs" dxfId="66" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K145:K148">
-    <cfRule type="cellIs" dxfId="65" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="212" operator="equal">
       <formula>$K144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="64" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="211" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:J148">
-    <cfRule type="cellIs" dxfId="63" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="213" operator="equal">
       <formula>$J144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I147">
-    <cfRule type="cellIs" dxfId="62" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="202" operator="equal">
       <formula>$I146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146:H147">
+    <cfRule type="cellIs" dxfId="67" priority="210" operator="equal">
+      <formula>$H145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146:I147">
+    <cfRule type="cellIs" dxfId="66" priority="209" operator="equal">
+      <formula>$I145</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K148">
+    <cfRule type="cellIs" dxfId="65" priority="208" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L148">
+    <cfRule type="cellIs" dxfId="64" priority="207" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K146">
+    <cfRule type="cellIs" dxfId="63" priority="206" operator="equal">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
+    <cfRule type="cellIs" dxfId="62" priority="205" operator="equal">
+      <formula>$L144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K145:K146">
     <cfRule type="cellIs" dxfId="61" priority="204" operator="equal">
-      <formula>$H145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:I147">
+      <formula>$K144</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145:L146">
     <cfRule type="cellIs" dxfId="60" priority="203" operator="equal">
-      <formula>$I145</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145:K148">
-    <cfRule type="cellIs" dxfId="59" priority="202" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L148">
-    <cfRule type="cellIs" dxfId="58" priority="201" operator="equal">
       <formula>$L144</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K145:K146">
-    <cfRule type="cellIs" dxfId="57" priority="200" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="56" priority="199" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K145:K146">
-    <cfRule type="cellIs" dxfId="55" priority="198" operator="equal">
-      <formula>$K144</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L145:L146">
-    <cfRule type="cellIs" dxfId="54" priority="197" operator="equal">
-      <formula>$L144</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="53" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="201" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I145">
-    <cfRule type="cellIs" dxfId="52" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="200" operator="equal">
       <formula>$I144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="51" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="195" operator="equal">
       <formula>$L149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="cellIs" dxfId="50" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="194" operator="equal">
       <formula>$L149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R157">
-    <cfRule type="cellIs" dxfId="49" priority="958" operator="equal">
-      <formula>$R264</formula>
+    <cfRule type="cellIs" dxfId="55" priority="964" operator="equal">
+      <formula>$R265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="48" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="971" operator="equal">
       <formula>$H3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="47" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="130" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151">
-    <cfRule type="cellIs" dxfId="46" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="129" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="cellIs" dxfId="45" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="cellIs" dxfId="44" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="128" operator="equal">
       <formula>$H62</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R151">
-    <cfRule type="cellIs" dxfId="43" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="139" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R152">
-    <cfRule type="cellIs" dxfId="42" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="127" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151">
-    <cfRule type="cellIs" dxfId="41" priority="117" operator="equal">
-      <formula>$I258</formula>
+    <cfRule type="cellIs" dxfId="47" priority="123" operator="equal">
+      <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I151">
-    <cfRule type="cellIs" dxfId="40" priority="116" operator="equal">
-      <formula>$I258</formula>
+    <cfRule type="cellIs" dxfId="46" priority="122" operator="equal">
+      <formula>$I259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K151">
-    <cfRule type="cellIs" dxfId="39" priority="135" operator="equal">
-      <formula>$K258</formula>
+    <cfRule type="cellIs" dxfId="45" priority="141" operator="equal">
+      <formula>$K259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L151">
-    <cfRule type="cellIs" dxfId="38" priority="136" operator="equal">
-      <formula>$L258</formula>
+    <cfRule type="cellIs" dxfId="44" priority="142" operator="equal">
+      <formula>$L259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151">
-    <cfRule type="cellIs" dxfId="37" priority="137" operator="equal">
-      <formula>$J258</formula>
+    <cfRule type="cellIs" dxfId="43" priority="143" operator="equal">
+      <formula>$J259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R74">
-    <cfRule type="cellIs" dxfId="36" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="977" operator="equal">
       <formula>$R73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R84">
-    <cfRule type="cellIs" dxfId="35" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="999" operator="equal">
       <formula>$R82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83 B83">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
       <formula>$H82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
       <formula>$I82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>$K82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="cellIs" dxfId="31" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
       <formula>$L82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="62" operator="equal">
       <formula>$J82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="29" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1000" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="28" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1002" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 B2">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>$H276</formula>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>$H277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="26" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1013" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
-    <cfRule type="cellIs" dxfId="25" priority="1025" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1031" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104 B104">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>$H102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>$I102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>$K102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>$L102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>$J102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>$L148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L150">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>$L149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L150">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>$L149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
     <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
+      <formula>$K148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>$L148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L150">
+      <formula>$K149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K150">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>$L149</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L150">
+      <formula>$K149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>$L149</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
+      <formula>$J148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
+      <formula>$J148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J150">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
+      <formula>$J149</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>$K148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
+      <formula>$I148</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>$K149</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K150">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>$K149</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>$J148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>$J148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$J149</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>$I148</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$H148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75 B75">
-    <cfRule type="cellIs" dxfId="4" priority="1062" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1068" operator="equal">
       <formula>$H157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="3" priority="1064" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1070" operator="equal">
       <formula>$I157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="2" priority="1065" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1071" operator="equal">
       <formula>$K157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="cellIs" dxfId="1" priority="1066" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1072" operator="equal">
       <formula>$L157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="0" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1090" operator="equal">
       <formula>$J157</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H219 B219">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>$H217</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I219">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>$I217</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K219">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$K217</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L219">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$L217</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J219">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>$J217</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R219">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>$R217</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application_framework/application_framework/setting_guide/CustomizingConfigurations/デフォルト設定一覧.xlsx
+++ b/application_framework/application_framework/setting_guide/CustomizingConfigurations/デフォルト設定一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="1360">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -5386,7 +5386,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メール送信要求管理テーブルのメール送信プロセスDカラムの名前</t>
+    <t>sendProcessIdColumnName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信要求管理テーブルのメール送信プロセスIDカラムの名前</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10517,7 +10521,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -22198,10 +22202,10 @@
         <v>879</v>
       </c>
       <c r="M220" s="24" t="s">
-        <v>102</v>
+        <v>1358</v>
       </c>
       <c r="N220" s="23" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="O220" s="24" t="s">
         <v>1356</v>
